--- a/wyniki/wyniki - dodatek.xlsx
+++ b/wyniki/wyniki - dodatek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\barto\OneDrive\Documents\Developer\DataStructuresComparison\wyniki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barto\Desktop\DataStructuresSDiZO\wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBA32A90-399E-4F4C-ABA4-9A21E8B3EBDF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E749A889-DE8D-40AA-B83F-5B4E7216B6E8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{0C1C1C42-A423-4E47-8A91-76E913E484E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>miejsce</t>
   </si>
@@ -45,28 +45,7 @@
     <t>zakres</t>
   </si>
   <si>
-    <t>Srednia: 0.304292</t>
-  </si>
-  <si>
-    <t>Srednia: 1.571654</t>
-  </si>
-  <si>
-    <t>Srednia: 0.313703</t>
-  </si>
-  <si>
-    <t>Srednia: 2.246117</t>
-  </si>
-  <si>
-    <t>Srednia: 4.027952</t>
-  </si>
-  <si>
-    <t>Srednia: 2.064169</t>
-  </si>
-  <si>
-    <t>Srednia: 31.147615</t>
-  </si>
-  <si>
-    <t>Srednia: 42.773465</t>
+    <t>Średnia</t>
   </si>
 </sst>
 </file>
@@ -164,7 +143,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -173,13 +158,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,237 +477,237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EBE452-9F4C-4708-8AA7-E5180A7BEE15}">
   <dimension ref="A1:AK104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I104"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="2" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="4"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="6"/>
     </row>
-    <row r="2" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <v>50</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
         <v>1000</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5">
         <v>10000</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5">
         <v>20000</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="2">
+      <c r="L2" s="5"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="7">
         <v>50</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5">
         <v>1000</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5">
         <v>10000</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3">
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5">
         <v>20000</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="2">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="7">
         <v>50</v>
       </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3">
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5">
         <v>1000</v>
       </c>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3">
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5">
         <v>10000</v>
       </c>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3">
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5">
         <v>20000</v>
       </c>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="4"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="6"/>
     </row>
-    <row r="3" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>100</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>16383</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>32767</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>100</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>16383</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>32767</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>100</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <v>16383</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="4">
         <v>32767</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="4">
         <v>100</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="4">
         <v>16383</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="2">
         <v>32767</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>100</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="4">
         <v>16383</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="4">
         <v>32767</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="4">
         <v>100</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="4">
         <v>16383</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="4">
         <v>32767</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="4">
         <v>100</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="4">
         <v>16383</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="4">
         <v>32767</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="4">
         <v>100</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="4">
         <v>16383</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="2">
         <v>32767</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="3">
         <v>100</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="4">
         <v>16383</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="4">
         <v>32767</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="4">
         <v>100</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AD3" s="4">
         <v>16383</v>
       </c>
-      <c r="AE3" s="7">
+      <c r="AE3" s="4">
         <v>32767</v>
       </c>
-      <c r="AF3" s="7">
+      <c r="AF3" s="4">
         <v>100</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG3" s="4">
         <v>16383</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AH3" s="4">
         <v>32767</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AI3" s="4">
         <v>100</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AJ3" s="4">
         <v>16383</v>
       </c>
-      <c r="AK3" s="5">
+      <c r="AK3" s="2">
         <v>32767</v>
       </c>
     </row>
@@ -757,6 +736,90 @@
       <c r="I4">
         <v>17.567392999999999</v>
       </c>
+      <c r="J4">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="K4">
+        <v>37.644413</v>
+      </c>
+      <c r="L4">
+        <v>34.507379</v>
+      </c>
+      <c r="M4">
+        <v>105.090654</v>
+      </c>
+      <c r="N4">
+        <v>0.94111</v>
+      </c>
+      <c r="O4">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P4">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q4">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R4">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="S4">
+        <v>10.665917</v>
+      </c>
+      <c r="T4">
+        <v>158.42024000000001</v>
+      </c>
+      <c r="U4">
+        <v>136.77470199999999</v>
+      </c>
+      <c r="V4">
+        <v>159.04764700000001</v>
+      </c>
+      <c r="W4">
+        <v>110.73731600000001</v>
+      </c>
+      <c r="X4">
+        <v>516.66957400000001</v>
+      </c>
+      <c r="Y4">
+        <v>130.18692999999999</v>
+      </c>
+      <c r="Z4">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA4">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB4">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC4">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD4">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE4">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF4">
+        <v>19.135909999999999</v>
+      </c>
+      <c r="AG4">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AH4">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AI4">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="AJ4">
+        <v>36.075896</v>
+      </c>
+      <c r="AK4">
+        <v>34.821081999999997</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -783,6 +846,90 @@
       <c r="I5">
         <v>23.841462</v>
       </c>
+      <c r="J5">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K5">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="L5">
+        <v>64.936612999999994</v>
+      </c>
+      <c r="M5">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="N5">
+        <v>0.94111</v>
+      </c>
+      <c r="O5">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P5">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q5">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="R5">
+        <v>11.607027</v>
+      </c>
+      <c r="S5">
+        <v>10.03851</v>
+      </c>
+      <c r="T5">
+        <v>101.326213</v>
+      </c>
+      <c r="U5">
+        <v>99.130289000000005</v>
+      </c>
+      <c r="V5">
+        <v>133.63766799999999</v>
+      </c>
+      <c r="W5">
+        <v>103.208433</v>
+      </c>
+      <c r="X5">
+        <v>149.32284000000001</v>
+      </c>
+      <c r="Y5">
+        <v>111.051019</v>
+      </c>
+      <c r="Z5">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA5">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB5">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC5">
+        <v>30.429234000000001</v>
+      </c>
+      <c r="AD5">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE5">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AF5">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG5">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH5">
+        <v>18.822206999999999</v>
+      </c>
+      <c r="AI5">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="AJ5">
+        <v>33.252564999999997</v>
+      </c>
+      <c r="AK5">
+        <v>34.507379</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -809,6 +956,90 @@
       <c r="I6">
         <v>37.017006000000002</v>
       </c>
+      <c r="J6">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="K6">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="L6">
+        <v>61.799579000000001</v>
+      </c>
+      <c r="M6">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="N6">
+        <v>0.94111</v>
+      </c>
+      <c r="O6">
+        <v>0.94111</v>
+      </c>
+      <c r="P6">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="Q6">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R6">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="S6">
+        <v>11.607027</v>
+      </c>
+      <c r="T6">
+        <v>94.424736999999993</v>
+      </c>
+      <c r="U6">
+        <v>80.621785000000003</v>
+      </c>
+      <c r="V6">
+        <v>93.797330000000002</v>
+      </c>
+      <c r="W6">
+        <v>103.522137</v>
+      </c>
+      <c r="X6">
+        <v>304.60604499999999</v>
+      </c>
+      <c r="Y6">
+        <v>105.71806100000001</v>
+      </c>
+      <c r="Z6">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA6">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB6">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC6">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD6">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE6">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF6">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AG6">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH6">
+        <v>31.997751000000001</v>
+      </c>
+      <c r="AI6">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AJ6">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AK6">
+        <v>35.762193000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -835,6 +1066,90 @@
       <c r="I7">
         <v>36.389600000000002</v>
       </c>
+      <c r="J7">
+        <v>68.387350999999995</v>
+      </c>
+      <c r="K7">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="L7">
+        <v>58.035136999999999</v>
+      </c>
+      <c r="M7">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="N7">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="O7">
+        <v>0.94111</v>
+      </c>
+      <c r="P7">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q7">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="R7">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="S7">
+        <v>10.665917</v>
+      </c>
+      <c r="T7">
+        <v>292.99901699999998</v>
+      </c>
+      <c r="U7">
+        <v>71.838088999999997</v>
+      </c>
+      <c r="V7">
+        <v>94.111033000000006</v>
+      </c>
+      <c r="W7">
+        <v>101.01250899999999</v>
+      </c>
+      <c r="X7">
+        <v>142.10766100000001</v>
+      </c>
+      <c r="Y7">
+        <v>104.463247</v>
+      </c>
+      <c r="Z7">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA7">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB7">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC7">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD7">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE7">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF7">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AG7">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH7">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI7">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ7">
+        <v>32.311455000000002</v>
+      </c>
+      <c r="AK7">
+        <v>34.507379</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -861,6 +1176,90 @@
       <c r="I8">
         <v>35.762193000000003</v>
       </c>
+      <c r="J8">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="K8">
+        <v>911.62221099999999</v>
+      </c>
+      <c r="L8">
+        <v>58.035136999999999</v>
+      </c>
+      <c r="M8">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="N8">
+        <v>0.94111</v>
+      </c>
+      <c r="O8">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P8">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q8">
+        <v>7.5288830000000004</v>
+      </c>
+      <c r="R8">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="S8">
+        <v>10.352214</v>
+      </c>
+      <c r="T8">
+        <v>96.620660999999998</v>
+      </c>
+      <c r="U8">
+        <v>72.465496000000002</v>
+      </c>
+      <c r="V8">
+        <v>85.327337</v>
+      </c>
+      <c r="W8">
+        <v>108.227688</v>
+      </c>
+      <c r="X8">
+        <v>148.69543300000001</v>
+      </c>
+      <c r="Y8">
+        <v>157.792833</v>
+      </c>
+      <c r="Z8">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA8">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB8">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC8">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD8">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE8">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF8">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AG8">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH8">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AI8">
+        <v>38.271819999999998</v>
+      </c>
+      <c r="AJ8">
+        <v>32.938862</v>
+      </c>
+      <c r="AK8">
+        <v>33.252564999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -887,6 +1286,90 @@
       <c r="I9">
         <v>35.448489000000002</v>
       </c>
+      <c r="J9">
+        <v>36.075896</v>
+      </c>
+      <c r="K9">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="L9">
+        <v>58.662543999999997</v>
+      </c>
+      <c r="M9">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="N9">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="O9">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P9">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q9">
+        <v>18.822206999999999</v>
+      </c>
+      <c r="R9">
+        <v>11.293324</v>
+      </c>
+      <c r="S9">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="T9">
+        <v>94.424736999999993</v>
+      </c>
+      <c r="U9">
+        <v>78.739564999999999</v>
+      </c>
+      <c r="V9">
+        <v>93.169922999999997</v>
+      </c>
+      <c r="W9">
+        <v>109.16879900000001</v>
+      </c>
+      <c r="X9">
+        <v>111.99213</v>
+      </c>
+      <c r="Y9">
+        <v>117.32508799999999</v>
+      </c>
+      <c r="Z9">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA9">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB9">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC9">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD9">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE9">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF9">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AG9">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH9">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI9">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ9">
+        <v>32.938862</v>
+      </c>
+      <c r="AK9">
+        <v>32.311455000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -913,6 +1396,90 @@
       <c r="I10">
         <v>262.25608</v>
       </c>
+      <c r="J10">
+        <v>36.075896</v>
+      </c>
+      <c r="K10">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="L10">
+        <v>58.035136999999999</v>
+      </c>
+      <c r="M10">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="N10">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O10">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P10">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q10">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R10">
+        <v>10.352214</v>
+      </c>
+      <c r="S10">
+        <v>10.665917</v>
+      </c>
+      <c r="T10">
+        <v>130.18692999999999</v>
+      </c>
+      <c r="U10">
+        <v>68.073648000000006</v>
+      </c>
+      <c r="V10">
+        <v>94.738439999999997</v>
+      </c>
+      <c r="W10">
+        <v>107.913985</v>
+      </c>
+      <c r="X10">
+        <v>143.04877099999999</v>
+      </c>
+      <c r="Y10">
+        <v>111.99213</v>
+      </c>
+      <c r="Z10">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA10">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB10">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC10">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD10">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE10">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF10">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AG10">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH10">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI10">
+        <v>34.507379</v>
+      </c>
+      <c r="AJ10">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AK10">
+        <v>34.193674999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -938,6 +1505,90 @@
       </c>
       <c r="I11">
         <v>18.194800000000001</v>
+      </c>
+      <c r="J11">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="K11">
+        <v>37.958117000000001</v>
+      </c>
+      <c r="L11">
+        <v>62.113281999999998</v>
+      </c>
+      <c r="M11">
+        <v>37.644413</v>
+      </c>
+      <c r="N11">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O11">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P11">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q11">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R11">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="S11">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="T11">
+        <v>91.915109000000001</v>
+      </c>
+      <c r="U11">
+        <v>71.524384999999995</v>
+      </c>
+      <c r="V11">
+        <v>90.660296000000002</v>
+      </c>
+      <c r="W11">
+        <v>105.71806100000001</v>
+      </c>
+      <c r="X11">
+        <v>147.12691599999999</v>
+      </c>
+      <c r="Y11">
+        <v>110.423613</v>
+      </c>
+      <c r="Z11">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA11">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB11">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC11">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD11">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE11">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF11">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AG11">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH11">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI11">
+        <v>34.507379</v>
+      </c>
+      <c r="AJ11">
+        <v>36.075896</v>
+      </c>
+      <c r="AK11">
+        <v>34.821081999999997</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -965,6 +1616,90 @@
       <c r="I12">
         <v>45.487000000000002</v>
       </c>
+      <c r="J12">
+        <v>46.741813</v>
+      </c>
+      <c r="K12">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L12">
+        <v>61.485875</v>
+      </c>
+      <c r="M12">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="N12">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O12">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P12">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q12">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="R12">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="S12">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="T12">
+        <v>147.12691599999999</v>
+      </c>
+      <c r="U12">
+        <v>73.092903000000007</v>
+      </c>
+      <c r="V12">
+        <v>146.81321199999999</v>
+      </c>
+      <c r="W12">
+        <v>104.14954400000001</v>
+      </c>
+      <c r="X12">
+        <v>233.70906600000001</v>
+      </c>
+      <c r="Y12">
+        <v>147.12691599999999</v>
+      </c>
+      <c r="Z12">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA12">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB12">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC12">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD12">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE12">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF12">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AG12">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH12">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AI12">
+        <v>34.507379</v>
+      </c>
+      <c r="AJ12">
+        <v>34.507379</v>
+      </c>
+      <c r="AK12">
+        <v>32.625157999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -991,6 +1726,90 @@
       <c r="I13">
         <v>17.881095999999999</v>
       </c>
+      <c r="J13">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="K13">
+        <v>40.154040999999999</v>
+      </c>
+      <c r="L13">
+        <v>77.484751000000003</v>
+      </c>
+      <c r="M13">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="N13">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O13">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P13">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q13">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="R13">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="S13">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="T13">
+        <v>98.502882</v>
+      </c>
+      <c r="U13">
+        <v>74.347716000000005</v>
+      </c>
+      <c r="V13">
+        <v>104.463247</v>
+      </c>
+      <c r="W13">
+        <v>140.539143</v>
+      </c>
+      <c r="X13">
+        <v>156.22431599999999</v>
+      </c>
+      <c r="Y13">
+        <v>118.266199</v>
+      </c>
+      <c r="Z13">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA13">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB13">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC13">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AD13">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE13">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF13">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AG13">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH13">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AI13">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AJ13">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AK13">
+        <v>33.879972000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -1016,6 +1835,90 @@
       </c>
       <c r="I14">
         <v>36.703302999999998</v>
+      </c>
+      <c r="J14">
+        <v>36.075896</v>
+      </c>
+      <c r="K14">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="L14">
+        <v>60.231060999999997</v>
+      </c>
+      <c r="M14">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="N14">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O14">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P14">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q14">
+        <v>7.5288830000000004</v>
+      </c>
+      <c r="R14">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="S14">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="T14">
+        <v>93.797330000000002</v>
+      </c>
+      <c r="U14">
+        <v>78.112157999999994</v>
+      </c>
+      <c r="V14">
+        <v>103.83584</v>
+      </c>
+      <c r="W14">
+        <v>153.714688</v>
+      </c>
+      <c r="X14">
+        <v>149.95024699999999</v>
+      </c>
+      <c r="Y14">
+        <v>112.61953699999999</v>
+      </c>
+      <c r="Z14">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA14">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB14">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC14">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD14">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE14">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF14">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AG14">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AH14">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI14">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ14">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AK14">
+        <v>32.311455000000002</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -1043,6 +1946,90 @@
       <c r="I15">
         <v>38.271819999999998</v>
       </c>
+      <c r="J15">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K15">
+        <v>37.958117000000001</v>
+      </c>
+      <c r="L15">
+        <v>59.289951000000002</v>
+      </c>
+      <c r="M15">
+        <v>77.484751000000003</v>
+      </c>
+      <c r="N15">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.94111</v>
+      </c>
+      <c r="P15">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q15">
+        <v>7.215179</v>
+      </c>
+      <c r="R15">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="S15">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="T15">
+        <v>92.228813000000002</v>
+      </c>
+      <c r="U15">
+        <v>116.383978</v>
+      </c>
+      <c r="V15">
+        <v>104.776951</v>
+      </c>
+      <c r="W15">
+        <v>158.10653600000001</v>
+      </c>
+      <c r="X15">
+        <v>133.01026100000001</v>
+      </c>
+      <c r="Y15">
+        <v>144.303585</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB15">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC15">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AD15">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE15">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF15">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG15">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AH15">
+        <v>16.312578999999999</v>
+      </c>
+      <c r="AI15">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ15">
+        <v>32.625157999999999</v>
+      </c>
+      <c r="AK15">
+        <v>34.507379</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -1069,8 +2056,92 @@
       <c r="I16">
         <v>36.703302999999998</v>
       </c>
+      <c r="J16">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="K16">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L16">
+        <v>57.407730000000001</v>
+      </c>
+      <c r="M16">
+        <v>70.269571999999997</v>
+      </c>
+      <c r="N16">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O16">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P16">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q16">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="R16">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="S16">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="T16">
+        <v>66.505129999999994</v>
+      </c>
+      <c r="U16">
+        <v>245.943501</v>
+      </c>
+      <c r="V16">
+        <v>101.95362</v>
+      </c>
+      <c r="W16">
+        <v>150.891357</v>
+      </c>
+      <c r="X16">
+        <v>128.304709</v>
+      </c>
+      <c r="Y16">
+        <v>200.142798</v>
+      </c>
+      <c r="Z16">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA16">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB16">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC16">
+        <v>22.586648</v>
+      </c>
+      <c r="AD16">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AE16">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF16">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG16">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH16">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI16">
+        <v>33.879972000000002</v>
+      </c>
+      <c r="AJ16">
+        <v>34.507379</v>
+      </c>
+      <c r="AK16">
+        <v>34.507379</v>
+      </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.31370300000000001</v>
       </c>
@@ -1095,8 +2166,92 @@
       <c r="I17">
         <v>35.134785999999998</v>
       </c>
+      <c r="J17">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="K17">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L17">
+        <v>61.172172000000003</v>
+      </c>
+      <c r="M17">
+        <v>66.191427000000004</v>
+      </c>
+      <c r="N17">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O17">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P17">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q17">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="R17">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="S17">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="T17">
+        <v>95.679551000000004</v>
+      </c>
+      <c r="U17">
+        <v>117.32508799999999</v>
+      </c>
+      <c r="V17">
+        <v>92.856219999999993</v>
+      </c>
+      <c r="W17">
+        <v>131.441743</v>
+      </c>
+      <c r="X17">
+        <v>133.32396399999999</v>
+      </c>
+      <c r="Y17">
+        <v>157.479129</v>
+      </c>
+      <c r="Z17">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA17">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB17">
+        <v>0.94111</v>
+      </c>
+      <c r="AC17">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD17">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE17">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF17">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AG17">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH17">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI17">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="AJ17">
+        <v>33.252564999999997</v>
+      </c>
+      <c r="AK17">
+        <v>34.507379</v>
+      </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.31370300000000001</v>
       </c>
@@ -1121,8 +2276,92 @@
       <c r="I18">
         <v>36.075896</v>
       </c>
+      <c r="J18">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="K18">
+        <v>37.958117000000001</v>
+      </c>
+      <c r="L18">
+        <v>61.172172000000003</v>
+      </c>
+      <c r="M18">
+        <v>71.838088999999997</v>
+      </c>
+      <c r="N18">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O18">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="P18">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q18">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="R18">
+        <v>12.234434</v>
+      </c>
+      <c r="S18">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="T18">
+        <v>98.189177999999998</v>
+      </c>
+      <c r="U18">
+        <v>72.465496000000002</v>
+      </c>
+      <c r="V18">
+        <v>88.464371</v>
+      </c>
+      <c r="W18">
+        <v>325.62417599999998</v>
+      </c>
+      <c r="X18">
+        <v>137.715812</v>
+      </c>
+      <c r="Y18">
+        <v>117.952495</v>
+      </c>
+      <c r="Z18">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA18">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB18">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC18">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD18">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE18">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF18">
+        <v>19.135909999999999</v>
+      </c>
+      <c r="AG18">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH18">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AI18">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="AJ18">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AK18">
+        <v>34.193674999999999</v>
+      </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.62740700000000005</v>
       </c>
@@ -1147,8 +2386,92 @@
       <c r="I19">
         <v>16.312578999999999</v>
       </c>
+      <c r="J19">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="K19">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="L19">
+        <v>59.289951000000002</v>
+      </c>
+      <c r="M19">
+        <v>186.33984599999999</v>
+      </c>
+      <c r="N19">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="O19">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P19">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q19">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="R19">
+        <v>10.665917</v>
+      </c>
+      <c r="S19">
+        <v>10.979621</v>
+      </c>
+      <c r="T19">
+        <v>97.248068000000004</v>
+      </c>
+      <c r="U19">
+        <v>294.25383099999999</v>
+      </c>
+      <c r="V19">
+        <v>91.601405999999997</v>
+      </c>
+      <c r="W19">
+        <v>165.63541900000001</v>
+      </c>
+      <c r="X19">
+        <v>132.38285400000001</v>
+      </c>
+      <c r="Y19">
+        <v>162.49838399999999</v>
+      </c>
+      <c r="Z19">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA19">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB19">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC19">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD19">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE19">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF19">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AG19">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH19">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AI19">
+        <v>93.797330000000002</v>
+      </c>
+      <c r="AJ19">
+        <v>33.252564999999997</v>
+      </c>
+      <c r="AK19">
+        <v>33.879972000000002</v>
+      </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.31370300000000001</v>
       </c>
@@ -1173,8 +2496,92 @@
       <c r="I20">
         <v>16.626283000000001</v>
       </c>
+      <c r="J20">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="K20">
+        <v>100.698806</v>
+      </c>
+      <c r="L20">
+        <v>60.544764999999998</v>
+      </c>
+      <c r="M20">
+        <v>63.995502999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O20">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P20">
+        <v>0.94111</v>
+      </c>
+      <c r="Q20">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="R20">
+        <v>10.03851</v>
+      </c>
+      <c r="S20">
+        <v>11.293324</v>
+      </c>
+      <c r="T20">
+        <v>99.443991999999994</v>
+      </c>
+      <c r="U20">
+        <v>103.208433</v>
+      </c>
+      <c r="V20">
+        <v>116.383978</v>
+      </c>
+      <c r="W20">
+        <v>181.63429500000001</v>
+      </c>
+      <c r="X20">
+        <v>110.109909</v>
+      </c>
+      <c r="Y20">
+        <v>152.14617100000001</v>
+      </c>
+      <c r="Z20">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA20">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB20">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC20">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD20">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE20">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF20">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AG20">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH20">
+        <v>16.312578999999999</v>
+      </c>
+      <c r="AI20">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="AJ20">
+        <v>33.252564999999997</v>
+      </c>
+      <c r="AK20">
+        <v>34.821081999999997</v>
+      </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0</v>
       </c>
@@ -1199,8 +2606,92 @@
       <c r="I21">
         <v>30.742937999999999</v>
       </c>
+      <c r="J21">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K21">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="L21">
+        <v>103.208433</v>
+      </c>
+      <c r="M21">
+        <v>60.231060999999997</v>
+      </c>
+      <c r="N21">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O21">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P21">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q21">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="R21">
+        <v>10.665917</v>
+      </c>
+      <c r="S21">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="T21">
+        <v>107.60028200000001</v>
+      </c>
+      <c r="U21">
+        <v>99.130289000000005</v>
+      </c>
+      <c r="V21">
+        <v>103.208433</v>
+      </c>
+      <c r="W21">
+        <v>138.029516</v>
+      </c>
+      <c r="X21">
+        <v>161.87097800000001</v>
+      </c>
+      <c r="Y21">
+        <v>471.18257399999999</v>
+      </c>
+      <c r="Z21">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA21">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB21">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC21">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD21">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE21">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF21">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG21">
+        <v>16.312578999999999</v>
+      </c>
+      <c r="AH21">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI21">
+        <v>38.271819999999998</v>
+      </c>
+      <c r="AJ21">
+        <v>33.252564999999997</v>
+      </c>
+      <c r="AK21">
+        <v>34.507379</v>
+      </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.31370300000000001</v>
       </c>
@@ -1225,8 +2716,92 @@
       <c r="I22">
         <v>17.567392999999999</v>
       </c>
+      <c r="J22">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="K22">
+        <v>38.271819999999998</v>
+      </c>
+      <c r="L22">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="M22">
+        <v>63.995502999999999</v>
+      </c>
+      <c r="N22">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O22">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P22">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q22">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R22">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="S22">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="T22">
+        <v>96.306957999999995</v>
+      </c>
+      <c r="U22">
+        <v>185.39873600000001</v>
+      </c>
+      <c r="V22">
+        <v>90.973999000000006</v>
+      </c>
+      <c r="W22">
+        <v>132.06915000000001</v>
+      </c>
+      <c r="X22">
+        <v>151.83246700000001</v>
+      </c>
+      <c r="Y22">
+        <v>555.56880100000001</v>
+      </c>
+      <c r="Z22">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA22">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB22">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC22">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AD22">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE22">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF22">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG22">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH22">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AI22">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="AJ22">
+        <v>32.938862</v>
+      </c>
+      <c r="AK22">
+        <v>32.938862</v>
+      </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.31370300000000001</v>
       </c>
@@ -1251,8 +2826,92 @@
       <c r="I23">
         <v>16.939986000000001</v>
       </c>
+      <c r="J23">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K23">
+        <v>63.368096000000001</v>
+      </c>
+      <c r="L23">
+        <v>64.622910000000005</v>
+      </c>
+      <c r="M23">
+        <v>67.132536999999999</v>
+      </c>
+      <c r="N23">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O23">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P23">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q23">
+        <v>7.5288830000000004</v>
+      </c>
+      <c r="R23">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="S23">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="T23">
+        <v>97.248068000000004</v>
+      </c>
+      <c r="U23">
+        <v>432.28334699999999</v>
+      </c>
+      <c r="V23">
+        <v>97.248068000000004</v>
+      </c>
+      <c r="W23">
+        <v>194.49613600000001</v>
+      </c>
+      <c r="X23">
+        <v>149.95024699999999</v>
+      </c>
+      <c r="Y23">
+        <v>119.521012</v>
+      </c>
+      <c r="Z23">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA23">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB23">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC23">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD23">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE23">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF23">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AG23">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH23">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AI23">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="AJ23">
+        <v>33.566268999999998</v>
+      </c>
+      <c r="AK23">
+        <v>33.252564999999997</v>
+      </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.31370300000000001</v>
       </c>
@@ -1277,8 +2936,92 @@
       <c r="I24">
         <v>36.389600000000002</v>
       </c>
+      <c r="J24">
+        <v>37.644413</v>
+      </c>
+      <c r="K24">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="L24">
+        <v>61.172172000000003</v>
+      </c>
+      <c r="M24">
+        <v>36.075896</v>
+      </c>
+      <c r="N24">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O24">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P24">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q24">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R24">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="S24">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="T24">
+        <v>95.679551000000004</v>
+      </c>
+      <c r="U24">
+        <v>72.151792</v>
+      </c>
+      <c r="V24">
+        <v>94.111033000000006</v>
+      </c>
+      <c r="W24">
+        <v>139.91173599999999</v>
+      </c>
+      <c r="X24">
+        <v>136.14729500000001</v>
+      </c>
+      <c r="Y24">
+        <v>114.18805399999999</v>
+      </c>
+      <c r="Z24">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA24">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB24">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC24">
+        <v>2.823331</v>
+      </c>
+      <c r="AD24">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE24">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF24">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG24">
+        <v>16.312578999999999</v>
+      </c>
+      <c r="AH24">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AI24">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="AJ24">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="AK24">
+        <v>34.821081999999997</v>
+      </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.62740700000000005</v>
       </c>
@@ -1303,8 +3046,92 @@
       <c r="I25">
         <v>36.703302999999998</v>
       </c>
+      <c r="J25">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="K25">
+        <v>95.365847000000002</v>
+      </c>
+      <c r="L25">
+        <v>63.995502999999999</v>
+      </c>
+      <c r="M25">
+        <v>66.191427000000004</v>
+      </c>
+      <c r="N25">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O25">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P25">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q25">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="R25">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="S25">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="T25">
+        <v>96.306957999999995</v>
+      </c>
+      <c r="U25">
+        <v>68.387350999999995</v>
+      </c>
+      <c r="V25">
+        <v>110.73731600000001</v>
+      </c>
+      <c r="W25">
+        <v>132.38285400000001</v>
+      </c>
+      <c r="X25">
+        <v>140.539143</v>
+      </c>
+      <c r="Y25">
+        <v>110.73731600000001</v>
+      </c>
+      <c r="Z25">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA25">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB25">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC25">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD25">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE25">
+        <v>2.823331</v>
+      </c>
+      <c r="AF25">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AG25">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AH25">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AI25">
+        <v>56.466619999999999</v>
+      </c>
+      <c r="AJ25">
+        <v>34.507379</v>
+      </c>
+      <c r="AK25">
+        <v>32.938862</v>
+      </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.31370300000000001</v>
       </c>
@@ -1329,8 +3156,92 @@
       <c r="I26">
         <v>17.881095999999999</v>
       </c>
+      <c r="J26">
+        <v>28.547013</v>
+      </c>
+      <c r="K26">
+        <v>137.715812</v>
+      </c>
+      <c r="L26">
+        <v>59.603655000000003</v>
+      </c>
+      <c r="M26">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="N26">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O26">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P26">
+        <v>0.94111</v>
+      </c>
+      <c r="Q26">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="R26">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="S26">
+        <v>11.920731</v>
+      </c>
+      <c r="T26">
+        <v>102.58102599999999</v>
+      </c>
+      <c r="U26">
+        <v>69.955867999999995</v>
+      </c>
+      <c r="V26">
+        <v>99.130289000000005</v>
+      </c>
+      <c r="W26">
+        <v>108.227688</v>
+      </c>
+      <c r="X26">
+        <v>217.71019100000001</v>
+      </c>
+      <c r="Y26">
+        <v>113.246944</v>
+      </c>
+      <c r="Z26">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA26">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB26">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC26">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD26">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE26">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF26">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG26">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AH26">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AI26">
+        <v>39.526634000000001</v>
+      </c>
+      <c r="AJ26">
+        <v>33.566268999999998</v>
+      </c>
+      <c r="AK26">
+        <v>35.134785999999998</v>
+      </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.31370300000000001</v>
       </c>
@@ -1355,8 +3266,92 @@
       <c r="I27">
         <v>17.881095999999999</v>
       </c>
+      <c r="J27">
+        <v>36.075896</v>
+      </c>
+      <c r="K27">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L27">
+        <v>60.544764999999998</v>
+      </c>
+      <c r="M27">
+        <v>63.995502999999999</v>
+      </c>
+      <c r="N27">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O27">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P27">
+        <v>0.94111</v>
+      </c>
+      <c r="Q27">
+        <v>10.352214</v>
+      </c>
+      <c r="R27">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="S27">
+        <v>10.352214</v>
+      </c>
+      <c r="T27">
+        <v>95.365847000000002</v>
+      </c>
+      <c r="U27">
+        <v>70.269571999999997</v>
+      </c>
+      <c r="V27">
+        <v>95.052143999999998</v>
+      </c>
+      <c r="W27">
+        <v>145.87210200000001</v>
+      </c>
+      <c r="X27">
+        <v>133.63766799999999</v>
+      </c>
+      <c r="Y27">
+        <v>121.716937</v>
+      </c>
+      <c r="Z27">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA27">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB27">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC27">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD27">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE27">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF27">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG27">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH27">
+        <v>16.312578999999999</v>
+      </c>
+      <c r="AI27">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="AJ27">
+        <v>33.879972000000002</v>
+      </c>
+      <c r="AK27">
+        <v>36.389600000000002</v>
+      </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.31370300000000001</v>
       </c>
@@ -1381,8 +3376,92 @@
       <c r="I28">
         <v>36.075896</v>
       </c>
+      <c r="J28">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="K28">
+        <v>37.644413</v>
+      </c>
+      <c r="L28">
+        <v>58.662543999999997</v>
+      </c>
+      <c r="M28">
+        <v>143.989881</v>
+      </c>
+      <c r="N28">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O28">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P28">
+        <v>0.94111</v>
+      </c>
+      <c r="Q28">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="R28">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="S28">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="T28">
+        <v>90.973999000000006</v>
+      </c>
+      <c r="U28">
+        <v>78.739564999999999</v>
+      </c>
+      <c r="V28">
+        <v>124.226564</v>
+      </c>
+      <c r="W28">
+        <v>137.08840499999999</v>
+      </c>
+      <c r="X28">
+        <v>160.30246</v>
+      </c>
+      <c r="Y28">
+        <v>114.501757</v>
+      </c>
+      <c r="Z28">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA28">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB28">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC28">
+        <v>5.3329589999999998</v>
+      </c>
+      <c r="AD28">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE28">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF28">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG28">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH28">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AI28">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="AJ28">
+        <v>32.625157999999999</v>
+      </c>
+      <c r="AK28">
+        <v>33.879972000000002</v>
+      </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.31370300000000001</v>
       </c>
@@ -1407,8 +3486,92 @@
       <c r="I29">
         <v>35.762193000000003</v>
       </c>
+      <c r="J29">
+        <v>45.173296000000001</v>
+      </c>
+      <c r="K29">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L29">
+        <v>58.976247999999998</v>
+      </c>
+      <c r="M29">
+        <v>59.603655000000003</v>
+      </c>
+      <c r="N29">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O29">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P29">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q29">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="R29">
+        <v>10.665917</v>
+      </c>
+      <c r="S29">
+        <v>10.352214</v>
+      </c>
+      <c r="T29">
+        <v>110.73731600000001</v>
+      </c>
+      <c r="U29">
+        <v>75.602530000000002</v>
+      </c>
+      <c r="V29">
+        <v>107.60028200000001</v>
+      </c>
+      <c r="W29">
+        <v>135.83359200000001</v>
+      </c>
+      <c r="X29">
+        <v>161.243571</v>
+      </c>
+      <c r="Y29">
+        <v>323.42825199999999</v>
+      </c>
+      <c r="Z29">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA29">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB29">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC29">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD29">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE29">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AF29">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG29">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH29">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AI29">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="AJ29">
+        <v>32.938862</v>
+      </c>
+      <c r="AK29">
+        <v>33.879972000000002</v>
+      </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.31370300000000001</v>
       </c>
@@ -1433,8 +3596,92 @@
       <c r="I30">
         <v>38.271819999999998</v>
       </c>
+      <c r="J30">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="K30">
+        <v>38.271819999999998</v>
+      </c>
+      <c r="L30">
+        <v>58.976247999999998</v>
+      </c>
+      <c r="M30">
+        <v>65.250316999999995</v>
+      </c>
+      <c r="N30">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O30">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P30">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q30">
+        <v>10.03851</v>
+      </c>
+      <c r="R30">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="S30">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="T30">
+        <v>103.522137</v>
+      </c>
+      <c r="U30">
+        <v>78.425860999999998</v>
+      </c>
+      <c r="V30">
+        <v>98.502882</v>
+      </c>
+      <c r="W30">
+        <v>129.55952300000001</v>
+      </c>
+      <c r="X30">
+        <v>136.77470199999999</v>
+      </c>
+      <c r="Y30">
+        <v>144.303585</v>
+      </c>
+      <c r="Z30">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA30">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB30">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC30">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD30">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE30">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF30">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG30">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH30">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI30">
+        <v>72.151792</v>
+      </c>
+      <c r="AJ30">
+        <v>33.252564999999997</v>
+      </c>
+      <c r="AK30">
+        <v>33.252564999999997</v>
+      </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.31370300000000001</v>
       </c>
@@ -1459,8 +3706,92 @@
       <c r="I31">
         <v>16.626283000000001</v>
       </c>
+      <c r="J31">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K31">
+        <v>382.71820300000002</v>
+      </c>
+      <c r="L31">
+        <v>58.662543999999997</v>
+      </c>
+      <c r="M31">
+        <v>62.740689000000003</v>
+      </c>
+      <c r="N31">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O31">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P31">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q31">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="R31">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="S31">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="T31">
+        <v>102.58102599999999</v>
+      </c>
+      <c r="U31">
+        <v>152.14617100000001</v>
+      </c>
+      <c r="V31">
+        <v>93.797330000000002</v>
+      </c>
+      <c r="W31">
+        <v>146.18580499999999</v>
+      </c>
+      <c r="X31">
+        <v>136.14729500000001</v>
+      </c>
+      <c r="Y31">
+        <v>113.560647</v>
+      </c>
+      <c r="Z31">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA31">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB31">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC31">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD31">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE31">
+        <v>54.270696000000001</v>
+      </c>
+      <c r="AF31">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG31">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AH31">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI31">
+        <v>38.899227000000003</v>
+      </c>
+      <c r="AJ31">
+        <v>33.879972000000002</v>
+      </c>
+      <c r="AK31">
+        <v>34.821081999999997</v>
+      </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.31370300000000001</v>
       </c>
@@ -1485,8 +3816,92 @@
       <c r="I32">
         <v>51.447364999999998</v>
       </c>
+      <c r="J32">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="K32">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L32">
+        <v>61.799579000000001</v>
+      </c>
+      <c r="M32">
+        <v>70.269571999999997</v>
+      </c>
+      <c r="N32">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.94111</v>
+      </c>
+      <c r="P32">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q32">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="R32">
+        <v>10.03851</v>
+      </c>
+      <c r="S32">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="T32">
+        <v>102.267323</v>
+      </c>
+      <c r="U32">
+        <v>107.28657800000001</v>
+      </c>
+      <c r="V32">
+        <v>94.111033000000006</v>
+      </c>
+      <c r="W32">
+        <v>142.10766100000001</v>
+      </c>
+      <c r="X32">
+        <v>133.95137099999999</v>
+      </c>
+      <c r="Y32">
+        <v>159.98875699999999</v>
+      </c>
+      <c r="Z32">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA32">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB32">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC32">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD32">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE32">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF32">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG32">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH32">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI32">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="AJ32">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AK32">
+        <v>34.507379</v>
+      </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.31370300000000001</v>
       </c>
@@ -1511,8 +3926,92 @@
       <c r="I33">
         <v>38.271819999999998</v>
       </c>
+      <c r="J33">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="K33">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="L33">
+        <v>70.583275</v>
+      </c>
+      <c r="M33">
+        <v>63.995502999999999</v>
+      </c>
+      <c r="N33">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.94111</v>
+      </c>
+      <c r="P33">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q33">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="R33">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="S33">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="T33">
+        <v>70.583275</v>
+      </c>
+      <c r="U33">
+        <v>325.93787900000001</v>
+      </c>
+      <c r="V33">
+        <v>95.679551000000004</v>
+      </c>
+      <c r="W33">
+        <v>250.64905200000001</v>
+      </c>
+      <c r="X33">
+        <v>108.541392</v>
+      </c>
+      <c r="Y33">
+        <v>656.89501299999995</v>
+      </c>
+      <c r="Z33">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA33">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB33">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC33">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD33">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE33">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF33">
+        <v>19.135909999999999</v>
+      </c>
+      <c r="AG33">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH33">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AI33">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="AJ33">
+        <v>33.252564999999997</v>
+      </c>
+      <c r="AK33">
+        <v>34.821081999999997</v>
+      </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.31370300000000001</v>
       </c>
@@ -1537,8 +4036,92 @@
       <c r="I34">
         <v>83.75882</v>
       </c>
+      <c r="J34">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K34">
+        <v>37.644413</v>
+      </c>
+      <c r="L34">
+        <v>66.191427000000004</v>
+      </c>
+      <c r="M34">
+        <v>60.858468000000002</v>
+      </c>
+      <c r="N34">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="O34">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P34">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q34">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="R34">
+        <v>10.03851</v>
+      </c>
+      <c r="S34">
+        <v>10.665917</v>
+      </c>
+      <c r="T34">
+        <v>161.55727400000001</v>
+      </c>
+      <c r="U34">
+        <v>96.620660999999998</v>
+      </c>
+      <c r="V34">
+        <v>91.915109000000001</v>
+      </c>
+      <c r="W34">
+        <v>107.28657800000001</v>
+      </c>
+      <c r="X34">
+        <v>105.71806100000001</v>
+      </c>
+      <c r="Y34">
+        <v>149.00913600000001</v>
+      </c>
+      <c r="Z34">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA34">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB34">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC34">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD34">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE34">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF34">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AG34">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AH34">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AI34">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="AJ34">
+        <v>32.938862</v>
+      </c>
+      <c r="AK34">
+        <v>34.507379</v>
+      </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.31370300000000001</v>
       </c>
@@ -1563,8 +4146,92 @@
       <c r="I35">
         <v>37.330710000000003</v>
       </c>
+      <c r="J35">
+        <v>19.135909999999999</v>
+      </c>
+      <c r="K35">
+        <v>90.973999000000006</v>
+      </c>
+      <c r="L35">
+        <v>61.799579000000001</v>
+      </c>
+      <c r="M35">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="N35">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O35">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P35">
+        <v>0.94111</v>
+      </c>
+      <c r="Q35">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="R35">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="S35">
+        <v>10.352214</v>
+      </c>
+      <c r="T35">
+        <v>93.483626999999998</v>
+      </c>
+      <c r="U35">
+        <v>77.798454000000007</v>
+      </c>
+      <c r="V35">
+        <v>89.719184999999996</v>
+      </c>
+      <c r="W35">
+        <v>106.659171</v>
+      </c>
+      <c r="X35">
+        <v>105.71806100000001</v>
+      </c>
+      <c r="Y35">
+        <v>160.929867</v>
+      </c>
+      <c r="Z35">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA35">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB35">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC35">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD35">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE35">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AF35">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AG35">
+        <v>16.312578999999999</v>
+      </c>
+      <c r="AH35">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI35">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="AJ35">
+        <v>34.193674999999999</v>
+      </c>
+      <c r="AK35">
+        <v>33.566268999999998</v>
+      </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.62740700000000005</v>
       </c>
@@ -1589,8 +4256,92 @@
       <c r="I36">
         <v>39.212930999999998</v>
       </c>
+      <c r="J36">
+        <v>113.87435000000001</v>
+      </c>
+      <c r="K36">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L36">
+        <v>63.054392</v>
+      </c>
+      <c r="M36">
+        <v>61.485875</v>
+      </c>
+      <c r="N36">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O36">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P36">
+        <v>0.94111</v>
+      </c>
+      <c r="Q36">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="R36">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="S36">
+        <v>10.03851</v>
+      </c>
+      <c r="T36">
+        <v>85.327337</v>
+      </c>
+      <c r="U36">
+        <v>117.638792</v>
+      </c>
+      <c r="V36">
+        <v>101.326213</v>
+      </c>
+      <c r="W36">
+        <v>108.227688</v>
+      </c>
+      <c r="X36">
+        <v>113.246944</v>
+      </c>
+      <c r="Y36">
+        <v>116.697681</v>
+      </c>
+      <c r="Z36">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA36">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB36">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC36">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD36">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE36">
+        <v>5.3329589999999998</v>
+      </c>
+      <c r="AF36">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG36">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH36">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI36">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="AJ36">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AK36">
+        <v>34.507379</v>
+      </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.62740700000000005</v>
       </c>
@@ -1615,8 +4366,92 @@
       <c r="I37">
         <v>44.545889000000003</v>
       </c>
+      <c r="J37">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="K37">
+        <v>666.61982</v>
+      </c>
+      <c r="L37">
+        <v>58.348841</v>
+      </c>
+      <c r="M37">
+        <v>59.289951000000002</v>
+      </c>
+      <c r="N37">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O37">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P37">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q37">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="R37">
+        <v>11.920731</v>
+      </c>
+      <c r="S37">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="T37">
+        <v>92.856219999999993</v>
+      </c>
+      <c r="U37">
+        <v>117.32508799999999</v>
+      </c>
+      <c r="V37">
+        <v>234.02277000000001</v>
+      </c>
+      <c r="W37">
+        <v>109.482502</v>
+      </c>
+      <c r="X37">
+        <v>106.659171</v>
+      </c>
+      <c r="Y37">
+        <v>112.30583300000001</v>
+      </c>
+      <c r="Z37">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA37">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB37">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC37">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD37">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE37">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF37">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG37">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH37">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AI37">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="AJ37">
+        <v>32.625157999999999</v>
+      </c>
+      <c r="AK37">
+        <v>33.252564999999997</v>
+      </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.31370300000000001</v>
       </c>
@@ -1641,8 +4476,92 @@
       <c r="I38">
         <v>16.626283000000001</v>
       </c>
+      <c r="J38">
+        <v>38.899227000000003</v>
+      </c>
+      <c r="K38">
+        <v>38.271819999999998</v>
+      </c>
+      <c r="L38">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="M38">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="N38">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="O38">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P38">
+        <v>0.94111</v>
+      </c>
+      <c r="Q38">
+        <v>41.408855000000003</v>
+      </c>
+      <c r="R38">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="S38">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="T38">
+        <v>143.67617799999999</v>
+      </c>
+      <c r="U38">
+        <v>95.993253999999993</v>
+      </c>
+      <c r="V38">
+        <v>122.658047</v>
+      </c>
+      <c r="W38">
+        <v>111.051019</v>
+      </c>
+      <c r="X38">
+        <v>104.463247</v>
+      </c>
+      <c r="Y38">
+        <v>115.75657099999999</v>
+      </c>
+      <c r="Z38">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA38">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB38">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC38">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD38">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE38">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF38">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG38">
+        <v>16.312578999999999</v>
+      </c>
+      <c r="AH38">
+        <v>16.312578999999999</v>
+      </c>
+      <c r="AI38">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="AJ38">
+        <v>32.311455000000002</v>
+      </c>
+      <c r="AK38">
+        <v>34.507379</v>
+      </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0</v>
       </c>
@@ -1667,8 +4586,92 @@
       <c r="I39">
         <v>35.134785999999998</v>
       </c>
+      <c r="J39">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K39">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L39">
+        <v>97.561770999999993</v>
+      </c>
+      <c r="M39">
+        <v>59.917358</v>
+      </c>
+      <c r="N39">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O39">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P39">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q39">
+        <v>10.665917</v>
+      </c>
+      <c r="R39">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="S39">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="T39">
+        <v>78.112157999999994</v>
+      </c>
+      <c r="U39">
+        <v>88.778075000000001</v>
+      </c>
+      <c r="V39">
+        <v>90.660296000000002</v>
+      </c>
+      <c r="W39">
+        <v>106.659171</v>
+      </c>
+      <c r="X39">
+        <v>107.60028200000001</v>
+      </c>
+      <c r="Y39">
+        <v>114.501757</v>
+      </c>
+      <c r="Z39">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA39">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB39">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC39">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD39">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE39">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AF39">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG39">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH39">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI39">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AJ39">
+        <v>40.467744000000003</v>
+      </c>
+      <c r="AK39">
+        <v>33.879972000000002</v>
+      </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.31370300000000001</v>
       </c>
@@ -1693,8 +4696,92 @@
       <c r="I40">
         <v>35.134785999999998</v>
       </c>
+      <c r="J40">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="K40">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="L40">
+        <v>60.231060999999997</v>
+      </c>
+      <c r="M40">
+        <v>60.231060999999997</v>
+      </c>
+      <c r="N40">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="O40">
+        <v>0.94111</v>
+      </c>
+      <c r="P40">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="Q40">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="R40">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="S40">
+        <v>7.5288830000000004</v>
+      </c>
+      <c r="T40">
+        <v>106.972875</v>
+      </c>
+      <c r="U40">
+        <v>278.56865900000003</v>
+      </c>
+      <c r="V40">
+        <v>96.934364000000002</v>
+      </c>
+      <c r="W40">
+        <v>103.208433</v>
+      </c>
+      <c r="X40">
+        <v>103.83584</v>
+      </c>
+      <c r="Y40">
+        <v>117.952495</v>
+      </c>
+      <c r="Z40">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA40">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB40">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC40">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD40">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE40">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF40">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG40">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AH40">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AI40">
+        <v>40.467744000000003</v>
+      </c>
+      <c r="AJ40">
+        <v>32.311455000000002</v>
+      </c>
+      <c r="AK40">
+        <v>35.134785999999998</v>
+      </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.31370300000000001</v>
       </c>
@@ -1719,8 +4806,92 @@
       <c r="I41">
         <v>124.853971</v>
       </c>
+      <c r="J41">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="K41">
+        <v>37.958117000000001</v>
+      </c>
+      <c r="L41">
+        <v>62.113281999999998</v>
+      </c>
+      <c r="M41">
+        <v>102.89473</v>
+      </c>
+      <c r="N41">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O41">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="P41">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q41">
+        <v>15.057765</v>
+      </c>
+      <c r="R41">
+        <v>7.215179</v>
+      </c>
+      <c r="S41">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="T41">
+        <v>95.052143999999998</v>
+      </c>
+      <c r="U41">
+        <v>94.111033000000006</v>
+      </c>
+      <c r="V41">
+        <v>90.660296000000002</v>
+      </c>
+      <c r="W41">
+        <v>149.00913600000001</v>
+      </c>
+      <c r="X41">
+        <v>495.65144299999997</v>
+      </c>
+      <c r="Y41">
+        <v>117.638792</v>
+      </c>
+      <c r="Z41">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA41">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB41">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC41">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD41">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE41">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AF41">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG41">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AH41">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AI41">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="AJ41">
+        <v>34.507379</v>
+      </c>
+      <c r="AK41">
+        <v>32.938862</v>
+      </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0</v>
       </c>
@@ -1745,8 +4916,92 @@
       <c r="I42">
         <v>18.194800000000001</v>
       </c>
+      <c r="J42">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="K42">
+        <v>3138.6029659999999</v>
+      </c>
+      <c r="L42">
+        <v>71.210682000000006</v>
+      </c>
+      <c r="M42">
+        <v>67.446241000000001</v>
+      </c>
+      <c r="N42">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O42">
+        <v>0.94111</v>
+      </c>
+      <c r="P42">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q42">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="R42">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="S42">
+        <v>7.5288830000000004</v>
+      </c>
+      <c r="T42">
+        <v>101.326213</v>
+      </c>
+      <c r="U42">
+        <v>103.83584</v>
+      </c>
+      <c r="V42">
+        <v>92.228813000000002</v>
+      </c>
+      <c r="W42">
+        <v>146.18580499999999</v>
+      </c>
+      <c r="X42">
+        <v>113.246944</v>
+      </c>
+      <c r="Y42">
+        <v>183.830219</v>
+      </c>
+      <c r="Z42">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA42">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB42">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC42">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD42">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE42">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF42">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG42">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH42">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AI42">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AJ42">
+        <v>34.193674999999999</v>
+      </c>
+      <c r="AK42">
+        <v>32.938862</v>
+      </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.31370300000000001</v>
       </c>
@@ -1771,8 +5026,92 @@
       <c r="I43">
         <v>38.271819999999998</v>
       </c>
+      <c r="J43">
+        <v>37.644413</v>
+      </c>
+      <c r="K43">
+        <v>70.896979000000002</v>
+      </c>
+      <c r="L43">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="M43">
+        <v>60.858468000000002</v>
+      </c>
+      <c r="N43">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O43">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="P43">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="Q43">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="R43">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="S43">
+        <v>10.352214</v>
+      </c>
+      <c r="T43">
+        <v>95.052143999999998</v>
+      </c>
+      <c r="U43">
+        <v>129.87322599999999</v>
+      </c>
+      <c r="V43">
+        <v>190.731694</v>
+      </c>
+      <c r="W43">
+        <v>131.441743</v>
+      </c>
+      <c r="X43">
+        <v>106.659171</v>
+      </c>
+      <c r="Y43">
+        <v>383.659313</v>
+      </c>
+      <c r="Z43">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA43">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB43">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC43">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD43">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE43">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF43">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG43">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH43">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI43">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="AJ43">
+        <v>32.311455000000002</v>
+      </c>
+      <c r="AK43">
+        <v>32.938862</v>
+      </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.31370300000000001</v>
       </c>
@@ -1797,8 +5136,92 @@
       <c r="I44">
         <v>37.017006000000002</v>
       </c>
+      <c r="J44">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K44">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L44">
+        <v>67.132536999999999</v>
+      </c>
+      <c r="M44">
+        <v>59.603655000000003</v>
+      </c>
+      <c r="N44">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O44">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P44">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q44">
+        <v>10.03851</v>
+      </c>
+      <c r="R44">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="S44">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="T44">
+        <v>90.973999000000006</v>
+      </c>
+      <c r="U44">
+        <v>111.99213</v>
+      </c>
+      <c r="V44">
+        <v>104.776951</v>
+      </c>
+      <c r="W44">
+        <v>115.129164</v>
+      </c>
+      <c r="X44">
+        <v>538.94251799999995</v>
+      </c>
+      <c r="Y44">
+        <v>229.630922</v>
+      </c>
+      <c r="Z44">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA44">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB44">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC44">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD44">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE44">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF44">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG44">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH44">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AI44">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="AJ44">
+        <v>37.644413</v>
+      </c>
+      <c r="AK44">
+        <v>35.448489000000002</v>
+      </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.31370300000000001</v>
       </c>
@@ -1823,8 +5246,92 @@
       <c r="I45">
         <v>16.939986000000001</v>
       </c>
+      <c r="J45">
+        <v>37.958117000000001</v>
+      </c>
+      <c r="K45">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="L45">
+        <v>65.877723000000003</v>
+      </c>
+      <c r="M45">
+        <v>45.800702999999999</v>
+      </c>
+      <c r="N45">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O45">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P45">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q45">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="R45">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="S45">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="T45">
+        <v>111.364723</v>
+      </c>
+      <c r="U45">
+        <v>100.385102</v>
+      </c>
+      <c r="V45">
+        <v>97.248068000000004</v>
+      </c>
+      <c r="W45">
+        <v>142.73506699999999</v>
+      </c>
+      <c r="X45">
+        <v>113.246944</v>
+      </c>
+      <c r="Y45">
+        <v>156.22431599999999</v>
+      </c>
+      <c r="Z45">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA45">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB45">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC45">
+        <v>187.59466</v>
+      </c>
+      <c r="AD45">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE45">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF45">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG45">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AH45">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AI45">
+        <v>41.095151000000001</v>
+      </c>
+      <c r="AJ45">
+        <v>33.566268999999998</v>
+      </c>
+      <c r="AK45">
+        <v>33.879972000000002</v>
+      </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.62740700000000005</v>
       </c>
@@ -1849,8 +5356,92 @@
       <c r="I46">
         <v>44.232185999999999</v>
       </c>
+      <c r="J46">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="K46">
+        <v>37.644413</v>
+      </c>
+      <c r="L46">
+        <v>60.544764999999998</v>
+      </c>
+      <c r="M46">
+        <v>115.129164</v>
+      </c>
+      <c r="N46">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O46">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P46">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q46">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="R46">
+        <v>10.352214</v>
+      </c>
+      <c r="S46">
+        <v>10.03851</v>
+      </c>
+      <c r="T46">
+        <v>110.423613</v>
+      </c>
+      <c r="U46">
+        <v>91.287701999999996</v>
+      </c>
+      <c r="V46">
+        <v>114.501757</v>
+      </c>
+      <c r="W46">
+        <v>153.08728099999999</v>
+      </c>
+      <c r="X46">
+        <v>109.482502</v>
+      </c>
+      <c r="Y46">
+        <v>114.815461</v>
+      </c>
+      <c r="Z46">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA46">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB46">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC46">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD46">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE46">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF46">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG46">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH46">
+        <v>24.468869000000002</v>
+      </c>
+      <c r="AI46">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="AJ46">
+        <v>33.252564999999997</v>
+      </c>
+      <c r="AK46">
+        <v>35.762193000000003</v>
+      </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.31370300000000001</v>
       </c>
@@ -1875,8 +5466,92 @@
       <c r="I47">
         <v>37.330710000000003</v>
       </c>
+      <c r="J47">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="K47">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L47">
+        <v>59.917358</v>
+      </c>
+      <c r="M47">
+        <v>61.485875</v>
+      </c>
+      <c r="N47">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O47">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P47">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q47">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="R47">
+        <v>83.131412999999995</v>
+      </c>
+      <c r="S47">
+        <v>12.548138</v>
+      </c>
+      <c r="T47">
+        <v>94.111033000000006</v>
+      </c>
+      <c r="U47">
+        <v>89.091778000000005</v>
+      </c>
+      <c r="V47">
+        <v>90.032888999999997</v>
+      </c>
+      <c r="W47">
+        <v>127.991005</v>
+      </c>
+      <c r="X47">
+        <v>107.60028200000001</v>
+      </c>
+      <c r="Y47">
+        <v>117.011385</v>
+      </c>
+      <c r="Z47">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA47">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB47">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC47">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD47">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE47">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF47">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AG47">
+        <v>23.841462</v>
+      </c>
+      <c r="AH47">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI47">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="AJ47">
+        <v>36.075896</v>
+      </c>
+      <c r="AK47">
+        <v>33.252564999999997</v>
+      </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0</v>
       </c>
@@ -1901,8 +5576,92 @@
       <c r="I48">
         <v>36.389600000000002</v>
       </c>
+      <c r="J48">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="K48">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="L48">
+        <v>60.544764999999998</v>
+      </c>
+      <c r="M48">
+        <v>63.368096000000001</v>
+      </c>
+      <c r="N48">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O48">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P48">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q48">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="R48">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="S48">
+        <v>10.979621</v>
+      </c>
+      <c r="T48">
+        <v>89.719184999999996</v>
+      </c>
+      <c r="U48">
+        <v>115.442868</v>
+      </c>
+      <c r="V48">
+        <v>96.620660999999998</v>
+      </c>
+      <c r="W48">
+        <v>157.479129</v>
+      </c>
+      <c r="X48">
+        <v>106.031764</v>
+      </c>
+      <c r="Y48">
+        <v>114.18805399999999</v>
+      </c>
+      <c r="Z48">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA48">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB48">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC48">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD48">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE48">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF48">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG48">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AH48">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AI48">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="AJ48">
+        <v>33.252564999999997</v>
+      </c>
+      <c r="AK48">
+        <v>34.507379</v>
+      </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.31370300000000001</v>
       </c>
@@ -1927,8 +5686,92 @@
       <c r="I49">
         <v>16.939986000000001</v>
       </c>
+      <c r="J49">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K49">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L49">
+        <v>59.917358</v>
+      </c>
+      <c r="M49">
+        <v>60.858468000000002</v>
+      </c>
+      <c r="N49">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O49">
+        <v>0.94111</v>
+      </c>
+      <c r="P49">
+        <v>0.94111</v>
+      </c>
+      <c r="Q49">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="R49">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="S49">
+        <v>10.03851</v>
+      </c>
+      <c r="T49">
+        <v>101.326213</v>
+      </c>
+      <c r="U49">
+        <v>103.83584</v>
+      </c>
+      <c r="V49">
+        <v>92.228813000000002</v>
+      </c>
+      <c r="W49">
+        <v>141.480254</v>
+      </c>
+      <c r="X49">
+        <v>105.090654</v>
+      </c>
+      <c r="Y49">
+        <v>171.59578400000001</v>
+      </c>
+      <c r="Z49">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC49">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD49">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE49">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="AF49">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AG49">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH49">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI49">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="AJ49">
+        <v>33.566268999999998</v>
+      </c>
+      <c r="AK49">
+        <v>32.938862</v>
+      </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.31370300000000001</v>
       </c>
@@ -1953,8 +5796,92 @@
       <c r="I50">
         <v>17.253689000000001</v>
       </c>
+      <c r="J50">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="K50">
+        <v>37.958117000000001</v>
+      </c>
+      <c r="L50">
+        <v>61.172172000000003</v>
+      </c>
+      <c r="M50">
+        <v>61.485875</v>
+      </c>
+      <c r="N50">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O50">
+        <v>0.94111</v>
+      </c>
+      <c r="P50">
+        <v>4.3918480000000004</v>
+      </c>
+      <c r="Q50">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="R50">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="S50">
+        <v>11.293324</v>
+      </c>
+      <c r="T50">
+        <v>90.660296000000002</v>
+      </c>
+      <c r="U50">
+        <v>96.306957999999995</v>
+      </c>
+      <c r="V50">
+        <v>111.051019</v>
+      </c>
+      <c r="W50">
+        <v>133.63766799999999</v>
+      </c>
+      <c r="X50">
+        <v>106.972875</v>
+      </c>
+      <c r="Y50">
+        <v>117.638792</v>
+      </c>
+      <c r="Z50">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC50">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD50">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AE50">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF50">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG50">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AH50">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AI50">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="AJ50">
+        <v>33.566268999999998</v>
+      </c>
+      <c r="AK50">
+        <v>32.311455000000002</v>
+      </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.31370300000000001</v>
       </c>
@@ -1979,8 +5906,92 @@
       <c r="I51">
         <v>35.134785999999998</v>
       </c>
+      <c r="J51">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="K51">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="L51">
+        <v>155.59690900000001</v>
+      </c>
+      <c r="M51">
+        <v>78.425860999999998</v>
+      </c>
+      <c r="N51">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O51">
+        <v>0.94111</v>
+      </c>
+      <c r="P51">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q51">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="R51">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="S51">
+        <v>10.979621</v>
+      </c>
+      <c r="T51">
+        <v>89.719184999999996</v>
+      </c>
+      <c r="U51">
+        <v>110.423613</v>
+      </c>
+      <c r="V51">
+        <v>128.304709</v>
+      </c>
+      <c r="W51">
+        <v>240.61054200000001</v>
+      </c>
+      <c r="X51">
+        <v>164.380605</v>
+      </c>
+      <c r="Y51">
+        <v>155.59690900000001</v>
+      </c>
+      <c r="Z51">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA51">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB51">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC51">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD51">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AE51">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="AF51">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG51">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH51">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AI51">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AJ51">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AK51">
+        <v>34.821081999999997</v>
+      </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0.62740700000000005</v>
       </c>
@@ -2005,8 +6016,92 @@
       <c r="I52">
         <v>17.881095999999999</v>
       </c>
+      <c r="J52">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="K52">
+        <v>37.958117000000001</v>
+      </c>
+      <c r="L52">
+        <v>71.524384999999995</v>
+      </c>
+      <c r="M52">
+        <v>62.113281999999998</v>
+      </c>
+      <c r="N52">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="O52">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P52">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="Q52">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R52">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="S52">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="T52">
+        <v>93.483626999999998</v>
+      </c>
+      <c r="U52">
+        <v>105.404357</v>
+      </c>
+      <c r="V52">
+        <v>112.61953699999999</v>
+      </c>
+      <c r="W52">
+        <v>154.655798</v>
+      </c>
+      <c r="X52">
+        <v>107.913985</v>
+      </c>
+      <c r="Y52">
+        <v>118.266199</v>
+      </c>
+      <c r="Z52">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA52">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB52">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC52">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD52">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE52">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF52">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AG52">
+        <v>19.449614</v>
+      </c>
+      <c r="AH52">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI52">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AJ52">
+        <v>33.566268999999998</v>
+      </c>
+      <c r="AK52">
+        <v>34.507379</v>
+      </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0.31370300000000001</v>
       </c>
@@ -2031,8 +6126,92 @@
       <c r="I53">
         <v>44.859592999999997</v>
       </c>
+      <c r="J53">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="K53">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="L53">
+        <v>61.485875</v>
+      </c>
+      <c r="M53">
+        <v>63.681798999999998</v>
+      </c>
+      <c r="N53">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O53">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P53">
+        <v>4.0781450000000001</v>
+      </c>
+      <c r="Q53">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="R53">
+        <v>10.352214</v>
+      </c>
+      <c r="S53">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="T53">
+        <v>91.915109000000001</v>
+      </c>
+      <c r="U53">
+        <v>102.89473</v>
+      </c>
+      <c r="V53">
+        <v>97.248068000000004</v>
+      </c>
+      <c r="W53">
+        <v>149.32284000000001</v>
+      </c>
+      <c r="X53">
+        <v>108.227688</v>
+      </c>
+      <c r="Y53">
+        <v>111.051019</v>
+      </c>
+      <c r="Z53">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA53">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB53">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC53">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD53">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE53">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="AF53">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AG53">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH53">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI53">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AJ53">
+        <v>36.075896</v>
+      </c>
+      <c r="AK53">
+        <v>35.448489000000002</v>
+      </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0</v>
       </c>
@@ -2057,8 +6236,92 @@
       <c r="I54">
         <v>27.919606999999999</v>
       </c>
+      <c r="J54">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="K54">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L54">
+        <v>65.877723000000003</v>
+      </c>
+      <c r="M54">
+        <v>64.936612999999994</v>
+      </c>
+      <c r="N54">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O54">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P54">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q54">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="R54">
+        <v>11.293324</v>
+      </c>
+      <c r="S54">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="T54">
+        <v>167.203936</v>
+      </c>
+      <c r="U54">
+        <v>94.111033000000006</v>
+      </c>
+      <c r="V54">
+        <v>93.797330000000002</v>
+      </c>
+      <c r="W54">
+        <v>140.539143</v>
+      </c>
+      <c r="X54">
+        <v>108.541392</v>
+      </c>
+      <c r="Y54">
+        <v>117.638792</v>
+      </c>
+      <c r="Z54">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA54">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB54">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC54">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD54">
+        <v>4.3918480000000004</v>
+      </c>
+      <c r="AE54">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF54">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG54">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AH54">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI54">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ54">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AK54">
+        <v>34.821081999999997</v>
+      </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>0.31370300000000001</v>
       </c>
@@ -2083,8 +6346,92 @@
       <c r="I55">
         <v>34.821081999999997</v>
       </c>
+      <c r="J55">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="K55">
+        <v>43.918481999999997</v>
+      </c>
+      <c r="L55">
+        <v>60.544764999999998</v>
+      </c>
+      <c r="M55">
+        <v>62.740689000000003</v>
+      </c>
+      <c r="N55">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O55">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P55">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q55">
+        <v>7.215179</v>
+      </c>
+      <c r="R55">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="S55">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="T55">
+        <v>127.991005</v>
+      </c>
+      <c r="U55">
+        <v>117.32508799999999</v>
+      </c>
+      <c r="V55">
+        <v>92.228813000000002</v>
+      </c>
+      <c r="W55">
+        <v>138.97062600000001</v>
+      </c>
+      <c r="X55">
+        <v>110.109909</v>
+      </c>
+      <c r="Y55">
+        <v>117.638792</v>
+      </c>
+      <c r="Z55">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA55">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB55">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC55">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD55">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE55">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="AF55">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AG55">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AH55">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI55">
+        <v>34.507379</v>
+      </c>
+      <c r="AJ55">
+        <v>33.879972000000002</v>
+      </c>
+      <c r="AK55">
+        <v>35.762193000000003</v>
+      </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>0.31370300000000001</v>
       </c>
@@ -2109,8 +6456,92 @@
       <c r="I56">
         <v>34.821081999999997</v>
       </c>
+      <c r="J56">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K56">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="L56">
+        <v>61.799579000000001</v>
+      </c>
+      <c r="M56">
+        <v>60.231060999999997</v>
+      </c>
+      <c r="N56">
+        <v>20.704426999999999</v>
+      </c>
+      <c r="O56">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P56">
+        <v>0.94111</v>
+      </c>
+      <c r="Q56">
+        <v>7.215179</v>
+      </c>
+      <c r="R56">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="S56">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="T56">
+        <v>97.561770999999993</v>
+      </c>
+      <c r="U56">
+        <v>97.875474999999994</v>
+      </c>
+      <c r="V56">
+        <v>89.091778000000005</v>
+      </c>
+      <c r="W56">
+        <v>127.36359899999999</v>
+      </c>
+      <c r="X56">
+        <v>106.659171</v>
+      </c>
+      <c r="Y56">
+        <v>119.521012</v>
+      </c>
+      <c r="Z56">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA56">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB56">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC56">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD56">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE56">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF56">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG56">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AH56">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI56">
+        <v>34.507379</v>
+      </c>
+      <c r="AJ56">
+        <v>33.879972000000002</v>
+      </c>
+      <c r="AK56">
+        <v>33.566268999999998</v>
+      </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0.62740700000000005</v>
       </c>
@@ -2135,8 +6566,92 @@
       <c r="I57">
         <v>17.567392999999999</v>
       </c>
+      <c r="J57">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K57">
+        <v>66.505129999999994</v>
+      </c>
+      <c r="L57">
+        <v>59.603655000000003</v>
+      </c>
+      <c r="M57">
+        <v>63.681798999999998</v>
+      </c>
+      <c r="N57">
+        <v>82.504006000000004</v>
+      </c>
+      <c r="O57">
+        <v>0.94111</v>
+      </c>
+      <c r="P57">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q57">
+        <v>10.352214</v>
+      </c>
+      <c r="R57">
+        <v>31.056640999999999</v>
+      </c>
+      <c r="S57">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="T57">
+        <v>87.836965000000006</v>
+      </c>
+      <c r="U57">
+        <v>92.228813000000002</v>
+      </c>
+      <c r="V57">
+        <v>97.248068000000004</v>
+      </c>
+      <c r="W57">
+        <v>140.22543999999999</v>
+      </c>
+      <c r="X57">
+        <v>110.109909</v>
+      </c>
+      <c r="Y57">
+        <v>115.75657099999999</v>
+      </c>
+      <c r="Z57">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA57">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB57">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC57">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD57">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE57">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF57">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG57">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH57">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI57">
+        <v>34.507379</v>
+      </c>
+      <c r="AJ57">
+        <v>33.252564999999997</v>
+      </c>
+      <c r="AK57">
+        <v>33.252564999999997</v>
+      </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.31370300000000001</v>
       </c>
@@ -2161,8 +6676,92 @@
       <c r="I58">
         <v>16.939986000000001</v>
       </c>
+      <c r="J58">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="K58">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L58">
+        <v>62.113281999999998</v>
+      </c>
+      <c r="M58">
+        <v>58.662543999999997</v>
+      </c>
+      <c r="N58">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O58">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P58">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q58">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="R58">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="S58">
+        <v>27.292200000000001</v>
+      </c>
+      <c r="T58">
+        <v>116.070275</v>
+      </c>
+      <c r="U58">
+        <v>94.424736999999993</v>
+      </c>
+      <c r="V58">
+        <v>112.93324</v>
+      </c>
+      <c r="W58">
+        <v>178.81096400000001</v>
+      </c>
+      <c r="X58">
+        <v>503.18032599999998</v>
+      </c>
+      <c r="Y58">
+        <v>115.442868</v>
+      </c>
+      <c r="Z58">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA58">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB58">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC58">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD58">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE58">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF58">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG58">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH58">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI58">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ58">
+        <v>33.566268999999998</v>
+      </c>
+      <c r="AK58">
+        <v>33.252564999999997</v>
+      </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0.31370300000000001</v>
       </c>
@@ -2187,8 +6786,92 @@
       <c r="I59">
         <v>18.194800000000001</v>
       </c>
+      <c r="J59">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K59">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L59">
+        <v>60.544764999999998</v>
+      </c>
+      <c r="M59">
+        <v>61.485875</v>
+      </c>
+      <c r="N59">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O59">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P59">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q59">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="R59">
+        <v>13.175545</v>
+      </c>
+      <c r="S59">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="T59">
+        <v>64.622910000000005</v>
+      </c>
+      <c r="U59">
+        <v>132.06915000000001</v>
+      </c>
+      <c r="V59">
+        <v>115.442868</v>
+      </c>
+      <c r="W59">
+        <v>149.32284000000001</v>
+      </c>
+      <c r="X59">
+        <v>112.30583300000001</v>
+      </c>
+      <c r="Y59">
+        <v>903.46592099999998</v>
+      </c>
+      <c r="Z59">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA59">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB59">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC59">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD59">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE59">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF59">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG59">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH59">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI59">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ59">
+        <v>32.938862</v>
+      </c>
+      <c r="AK59">
+        <v>34.821081999999997</v>
+      </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0.31370300000000001</v>
       </c>
@@ -2213,8 +6896,92 @@
       <c r="I60">
         <v>46.741813</v>
       </c>
+      <c r="J60">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K60">
+        <v>104.776951</v>
+      </c>
+      <c r="L60">
+        <v>58.662543999999997</v>
+      </c>
+      <c r="M60">
+        <v>165.94912199999999</v>
+      </c>
+      <c r="N60">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O60">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P60">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q60">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="R60">
+        <v>10.979621</v>
+      </c>
+      <c r="S60">
+        <v>10.665917</v>
+      </c>
+      <c r="T60">
+        <v>72.465496000000002</v>
+      </c>
+      <c r="U60">
+        <v>96.934364000000002</v>
+      </c>
+      <c r="V60">
+        <v>139.28433000000001</v>
+      </c>
+      <c r="W60">
+        <v>142.10766100000001</v>
+      </c>
+      <c r="X60">
+        <v>111.051019</v>
+      </c>
+      <c r="Y60">
+        <v>112.93324</v>
+      </c>
+      <c r="Z60">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA60">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB60">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC60">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AD60">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE60">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF60">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG60">
+        <v>19.135909999999999</v>
+      </c>
+      <c r="AH60">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI60">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="AJ60">
+        <v>34.193674999999999</v>
+      </c>
+      <c r="AK60">
+        <v>34.821081999999997</v>
+      </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0.31370300000000001</v>
       </c>
@@ -2239,8 +7006,92 @@
       <c r="I61">
         <v>28.233309999999999</v>
       </c>
+      <c r="J61">
+        <v>18.822206999999999</v>
+      </c>
+      <c r="K61">
+        <v>38.585523999999999</v>
+      </c>
+      <c r="L61">
+        <v>59.603655000000003</v>
+      </c>
+      <c r="M61">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="N61">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O61">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P61">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q61">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="R61">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="S61">
+        <v>11.607027</v>
+      </c>
+      <c r="T61">
+        <v>64.936612999999994</v>
+      </c>
+      <c r="U61">
+        <v>68.387350999999995</v>
+      </c>
+      <c r="V61">
+        <v>90.973999000000006</v>
+      </c>
+      <c r="W61">
+        <v>137.715812</v>
+      </c>
+      <c r="X61">
+        <v>107.28657800000001</v>
+      </c>
+      <c r="Y61">
+        <v>145.87210200000001</v>
+      </c>
+      <c r="Z61">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA61">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB61">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC61">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD61">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE61">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF61">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG61">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH61">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI61">
+        <v>34.507379</v>
+      </c>
+      <c r="AJ61">
+        <v>33.252564999999997</v>
+      </c>
+      <c r="AK61">
+        <v>37.958117000000001</v>
+      </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0.31370300000000001</v>
       </c>
@@ -2265,8 +7116,92 @@
       <c r="I62">
         <v>17.253689000000001</v>
       </c>
+      <c r="J62">
+        <v>18.822206999999999</v>
+      </c>
+      <c r="K62">
+        <v>120.46212300000001</v>
+      </c>
+      <c r="L62">
+        <v>62.426985999999999</v>
+      </c>
+      <c r="M62">
+        <v>58.035136999999999</v>
+      </c>
+      <c r="N62">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O62">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P62">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q62">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="R62">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="S62">
+        <v>10.352214</v>
+      </c>
+      <c r="T62">
+        <v>80.935489000000004</v>
+      </c>
+      <c r="U62">
+        <v>70.583275</v>
+      </c>
+      <c r="V62">
+        <v>87.209558000000001</v>
+      </c>
+      <c r="W62">
+        <v>136.77470199999999</v>
+      </c>
+      <c r="X62">
+        <v>116.697681</v>
+      </c>
+      <c r="Y62">
+        <v>114.18805399999999</v>
+      </c>
+      <c r="Z62">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA62">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB62">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC62">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD62">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE62">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF62">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG62">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH62">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI62">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ62">
+        <v>32.938862</v>
+      </c>
+      <c r="AK62">
+        <v>33.879972000000002</v>
+      </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0.31370300000000001</v>
       </c>
@@ -2291,8 +7226,92 @@
       <c r="I63">
         <v>17.881095999999999</v>
       </c>
+      <c r="J63">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K63">
+        <v>38.899227000000003</v>
+      </c>
+      <c r="L63">
+        <v>81.249191999999994</v>
+      </c>
+      <c r="M63">
+        <v>60.544764999999998</v>
+      </c>
+      <c r="N63">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O63">
+        <v>0.94111</v>
+      </c>
+      <c r="P63">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="Q63">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="R63">
+        <v>10.352214</v>
+      </c>
+      <c r="S63">
+        <v>10.352214</v>
+      </c>
+      <c r="T63">
+        <v>64.309206000000003</v>
+      </c>
+      <c r="U63">
+        <v>73.720309999999998</v>
+      </c>
+      <c r="V63">
+        <v>90.346592000000001</v>
+      </c>
+      <c r="W63">
+        <v>127.04989500000001</v>
+      </c>
+      <c r="X63">
+        <v>110.109909</v>
+      </c>
+      <c r="Y63">
+        <v>159.04764700000001</v>
+      </c>
+      <c r="Z63">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA63">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB63">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC63">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD63">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE63">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF63">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG63">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AH63">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI63">
+        <v>34.507379</v>
+      </c>
+      <c r="AJ63">
+        <v>32.311455000000002</v>
+      </c>
+      <c r="AK63">
+        <v>32.625157999999999</v>
+      </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>0.31370300000000001</v>
       </c>
@@ -2317,8 +7336,92 @@
       <c r="I64">
         <v>27.919606999999999</v>
       </c>
+      <c r="J64">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="K64">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L64">
+        <v>107.913985</v>
+      </c>
+      <c r="M64">
+        <v>59.603655000000003</v>
+      </c>
+      <c r="N64">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O64">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P64">
+        <v>0.94111</v>
+      </c>
+      <c r="Q64">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="R64">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="S64">
+        <v>10.03851</v>
+      </c>
+      <c r="T64">
+        <v>65.877723000000003</v>
+      </c>
+      <c r="U64">
+        <v>74.975122999999996</v>
+      </c>
+      <c r="V64">
+        <v>94.111033000000006</v>
+      </c>
+      <c r="W64">
+        <v>132.38285400000001</v>
+      </c>
+      <c r="X64">
+        <v>115.442868</v>
+      </c>
+      <c r="Y64">
+        <v>141.79395700000001</v>
+      </c>
+      <c r="Z64">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA64">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB64">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC64">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD64">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE64">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="AF64">
+        <v>19.135909999999999</v>
+      </c>
+      <c r="AG64">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AH64">
+        <v>19.135909999999999</v>
+      </c>
+      <c r="AI64">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ64">
+        <v>37.958117000000001</v>
+      </c>
+      <c r="AK64">
+        <v>32.938862</v>
+      </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>0.31370300000000001</v>
       </c>
@@ -2343,8 +7446,92 @@
       <c r="I65">
         <v>38.271819999999998</v>
       </c>
+      <c r="J65">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="K65">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L65">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="M65">
+        <v>62.426985999999999</v>
+      </c>
+      <c r="N65">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O65">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P65">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q65">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="R65">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="S65">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="T65">
+        <v>68.387350999999995</v>
+      </c>
+      <c r="U65">
+        <v>82.190303</v>
+      </c>
+      <c r="V65">
+        <v>91.287701999999996</v>
+      </c>
+      <c r="W65">
+        <v>104.463247</v>
+      </c>
+      <c r="X65">
+        <v>125.48137800000001</v>
+      </c>
+      <c r="Y65">
+        <v>244.68868699999999</v>
+      </c>
+      <c r="Z65">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA65">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB65">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC65">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD65">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE65">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF65">
+        <v>18.822206999999999</v>
+      </c>
+      <c r="AG65">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AH65">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI65">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ65">
+        <v>33.252564999999997</v>
+      </c>
+      <c r="AK65">
+        <v>31.997751000000001</v>
+      </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>0.62740700000000005</v>
       </c>
@@ -2369,8 +7556,92 @@
       <c r="I66">
         <v>36.703302999999998</v>
       </c>
+      <c r="J66">
+        <v>142.73506699999999</v>
+      </c>
+      <c r="K66">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L66">
+        <v>60.544764999999998</v>
+      </c>
+      <c r="M66">
+        <v>59.603655000000003</v>
+      </c>
+      <c r="N66">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O66">
+        <v>0.94111</v>
+      </c>
+      <c r="P66">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q66">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="R66">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="S66">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="T66">
+        <v>68.387350999999995</v>
+      </c>
+      <c r="U66">
+        <v>74.661420000000007</v>
+      </c>
+      <c r="V66">
+        <v>95.679551000000004</v>
+      </c>
+      <c r="W66">
+        <v>127.04989500000001</v>
+      </c>
+      <c r="X66">
+        <v>112.61953699999999</v>
+      </c>
+      <c r="Y66">
+        <v>237.78721100000001</v>
+      </c>
+      <c r="Z66">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA66">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB66">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC66">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD66">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE66">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF66">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG66">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH66">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI66">
+        <v>34.507379</v>
+      </c>
+      <c r="AJ66">
+        <v>32.625157999999999</v>
+      </c>
+      <c r="AK66">
+        <v>32.625157999999999</v>
+      </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>0.31370300000000001</v>
       </c>
@@ -2395,8 +7666,92 @@
       <c r="I67">
         <v>17.567392999999999</v>
       </c>
+      <c r="J67">
+        <v>275.11792100000002</v>
+      </c>
+      <c r="K67">
+        <v>41.095151000000001</v>
+      </c>
+      <c r="L67">
+        <v>60.231060999999997</v>
+      </c>
+      <c r="M67">
+        <v>84.386227000000005</v>
+      </c>
+      <c r="N67">
+        <v>0.94111</v>
+      </c>
+      <c r="O67">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P67">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q67">
+        <v>7.5288830000000004</v>
+      </c>
+      <c r="R67">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="S67">
+        <v>49.565143999999997</v>
+      </c>
+      <c r="T67">
+        <v>76.543640999999994</v>
+      </c>
+      <c r="U67">
+        <v>71.210682000000006</v>
+      </c>
+      <c r="V67">
+        <v>80.935489000000004</v>
+      </c>
+      <c r="W67">
+        <v>171.59578400000001</v>
+      </c>
+      <c r="X67">
+        <v>141.480254</v>
+      </c>
+      <c r="Y67">
+        <v>153.40098499999999</v>
+      </c>
+      <c r="Z67">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA67">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB67">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC67">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD67">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE67">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF67">
+        <v>18.822206999999999</v>
+      </c>
+      <c r="AG67">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH67">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AI67">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ67">
+        <v>34.507379</v>
+      </c>
+      <c r="AK67">
+        <v>34.507379</v>
+      </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>0.31370300000000001</v>
       </c>
@@ -2421,8 +7776,92 @@
       <c r="I68">
         <v>17.881095999999999</v>
       </c>
+      <c r="J68">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="K68">
+        <v>318.09529300000003</v>
+      </c>
+      <c r="L68">
+        <v>62.113281999999998</v>
+      </c>
+      <c r="M68">
+        <v>79.994377999999998</v>
+      </c>
+      <c r="N68">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O68">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="P68">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q68">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="R68">
+        <v>10.665917</v>
+      </c>
+      <c r="S68">
+        <v>10.665917</v>
+      </c>
+      <c r="T68">
+        <v>74.661420000000007</v>
+      </c>
+      <c r="U68">
+        <v>69.642165000000006</v>
+      </c>
+      <c r="V68">
+        <v>161.243571</v>
+      </c>
+      <c r="W68">
+        <v>137.08840499999999</v>
+      </c>
+      <c r="X68">
+        <v>135.206185</v>
+      </c>
+      <c r="Y68">
+        <v>148.38172900000001</v>
+      </c>
+      <c r="Z68">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA68">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB68">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC68">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD68">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE68">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF68">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG68">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH68">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI68">
+        <v>45.173296000000001</v>
+      </c>
+      <c r="AJ68">
+        <v>32.311455000000002</v>
+      </c>
+      <c r="AK68">
+        <v>32.938862</v>
+      </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>0.31370300000000001</v>
       </c>
@@ -2447,8 +7886,92 @@
       <c r="I69">
         <v>18.194800000000001</v>
       </c>
+      <c r="J69">
+        <v>241.86535599999999</v>
+      </c>
+      <c r="K69">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L69">
+        <v>59.917358</v>
+      </c>
+      <c r="M69">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="N69">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="O69">
+        <v>0.94111</v>
+      </c>
+      <c r="P69">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q69">
+        <v>7.215179</v>
+      </c>
+      <c r="R69">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="S69">
+        <v>10.352214</v>
+      </c>
+      <c r="T69">
+        <v>66.818833999999995</v>
+      </c>
+      <c r="U69">
+        <v>71.210682000000006</v>
+      </c>
+      <c r="V69">
+        <v>101.95362</v>
+      </c>
+      <c r="W69">
+        <v>238.41461799999999</v>
+      </c>
+      <c r="X69">
+        <v>110.423613</v>
+      </c>
+      <c r="Y69">
+        <v>127.991005</v>
+      </c>
+      <c r="Z69">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA69">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB69">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC69">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD69">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE69">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF69">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG69">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH69">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI69">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="AJ69">
+        <v>33.879972000000002</v>
+      </c>
+      <c r="AK69">
+        <v>32.625157999999999</v>
+      </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>0</v>
       </c>
@@ -2473,8 +7996,92 @@
       <c r="I70">
         <v>37.017006000000002</v>
       </c>
+      <c r="J70">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="K70">
+        <v>36.075896</v>
+      </c>
+      <c r="L70">
+        <v>60.231060999999997</v>
+      </c>
+      <c r="M70">
+        <v>64.309206000000003</v>
+      </c>
+      <c r="N70">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O70">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P70">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q70">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="R70">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="S70">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="T70">
+        <v>62.740689000000003</v>
+      </c>
+      <c r="U70">
+        <v>65.250316999999995</v>
+      </c>
+      <c r="V70">
+        <v>88.778075000000001</v>
+      </c>
+      <c r="W70">
+        <v>137.715812</v>
+      </c>
+      <c r="X70">
+        <v>117.011385</v>
+      </c>
+      <c r="Y70">
+        <v>118.89360600000001</v>
+      </c>
+      <c r="Z70">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA70">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB70">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC70">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD70">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE70">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF70">
+        <v>18.822206999999999</v>
+      </c>
+      <c r="AG70">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH70">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI70">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="AJ70">
+        <v>32.625157999999999</v>
+      </c>
+      <c r="AK70">
+        <v>34.193674999999999</v>
+      </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>0.31370300000000001</v>
       </c>
@@ -2499,8 +8106,92 @@
       <c r="I71">
         <v>1056.866906</v>
       </c>
+      <c r="J71">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="K71">
+        <v>37.644413</v>
+      </c>
+      <c r="L71">
+        <v>62.426985999999999</v>
+      </c>
+      <c r="M71">
+        <v>63.995502999999999</v>
+      </c>
+      <c r="N71">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O71">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P71">
+        <v>0.94111</v>
+      </c>
+      <c r="Q71">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="R71">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="S71">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="T71">
+        <v>71.838088999999997</v>
+      </c>
+      <c r="U71">
+        <v>133.63766799999999</v>
+      </c>
+      <c r="V71">
+        <v>102.58102599999999</v>
+      </c>
+      <c r="W71">
+        <v>115.129164</v>
+      </c>
+      <c r="X71">
+        <v>117.638792</v>
+      </c>
+      <c r="Y71">
+        <v>1579.183141</v>
+      </c>
+      <c r="Z71">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA71">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB71">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC71">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD71">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE71">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF71">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AG71">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AH71">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI71">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="AJ71">
+        <v>32.938862</v>
+      </c>
+      <c r="AK71">
+        <v>32.938862</v>
+      </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>0</v>
       </c>
@@ -2525,8 +8216,92 @@
       <c r="I72">
         <v>40.467744000000003</v>
       </c>
+      <c r="J72">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="K72">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L72">
+        <v>58.035136999999999</v>
+      </c>
+      <c r="M72">
+        <v>58.976247999999998</v>
+      </c>
+      <c r="N72">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O72">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P72">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q72">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="R72">
+        <v>10.03851</v>
+      </c>
+      <c r="S72">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="T72">
+        <v>110.73731600000001</v>
+      </c>
+      <c r="U72">
+        <v>105.404357</v>
+      </c>
+      <c r="V72">
+        <v>90.973999000000006</v>
+      </c>
+      <c r="W72">
+        <v>147.754323</v>
+      </c>
+      <c r="X72">
+        <v>108.85509500000001</v>
+      </c>
+      <c r="Y72">
+        <v>307.42937599999999</v>
+      </c>
+      <c r="Z72">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA72">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB72">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC72">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD72">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE72">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="AF72">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG72">
+        <v>16.312578999999999</v>
+      </c>
+      <c r="AH72">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI72">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ72">
+        <v>123.91286100000001</v>
+      </c>
+      <c r="AK72">
+        <v>34.193674999999999</v>
+      </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>0.31370300000000001</v>
       </c>
@@ -2551,8 +8326,92 @@
       <c r="I73">
         <v>36.703302999999998</v>
       </c>
+      <c r="J73">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="K73">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="L73">
+        <v>91.601405999999997</v>
+      </c>
+      <c r="M73">
+        <v>60.858468000000002</v>
+      </c>
+      <c r="N73">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O73">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P73">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q73">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="R73">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="S73">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="T73">
+        <v>142.10766100000001</v>
+      </c>
+      <c r="U73">
+        <v>96.620660999999998</v>
+      </c>
+      <c r="V73">
+        <v>94.424736999999993</v>
+      </c>
+      <c r="W73">
+        <v>140.852847</v>
+      </c>
+      <c r="X73">
+        <v>106.972875</v>
+      </c>
+      <c r="Y73">
+        <v>113.560647</v>
+      </c>
+      <c r="Z73">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA73">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB73">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC73">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AD73">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE73">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="AF73">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG73">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH73">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI73">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AJ73">
+        <v>32.625157999999999</v>
+      </c>
+      <c r="AK73">
+        <v>32.625157999999999</v>
+      </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>0.62740700000000005</v>
       </c>
@@ -2577,8 +8436,92 @@
       <c r="I74">
         <v>37.644413</v>
       </c>
+      <c r="J74">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="K74">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="L74">
+        <v>70.583275</v>
+      </c>
+      <c r="M74">
+        <v>60.544764999999998</v>
+      </c>
+      <c r="N74">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O74">
+        <v>0.94111</v>
+      </c>
+      <c r="P74">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q74">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R74">
+        <v>11.293324</v>
+      </c>
+      <c r="S74">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="T74">
+        <v>109.482502</v>
+      </c>
+      <c r="U74">
+        <v>70.583275</v>
+      </c>
+      <c r="V74">
+        <v>164.380605</v>
+      </c>
+      <c r="W74">
+        <v>142.10766100000001</v>
+      </c>
+      <c r="X74">
+        <v>484.67182200000002</v>
+      </c>
+      <c r="Y74">
+        <v>122.658047</v>
+      </c>
+      <c r="Z74">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA74">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB74">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC74">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD74">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE74">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="AF74">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG74">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AH74">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI74">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ74">
+        <v>33.566268999999998</v>
+      </c>
+      <c r="AK74">
+        <v>32.625157999999999</v>
+      </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0.31370300000000001</v>
       </c>
@@ -2603,8 +8546,92 @@
       <c r="I75">
         <v>37.017006000000002</v>
       </c>
+      <c r="J75">
+        <v>37.644413</v>
+      </c>
+      <c r="K75">
+        <v>71.838088999999997</v>
+      </c>
+      <c r="L75">
+        <v>63.995502999999999</v>
+      </c>
+      <c r="M75">
+        <v>58.976247999999998</v>
+      </c>
+      <c r="N75">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O75">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P75">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q75">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="R75">
+        <v>10.979621</v>
+      </c>
+      <c r="S75">
+        <v>7.215179</v>
+      </c>
+      <c r="T75">
+        <v>76.857343999999998</v>
+      </c>
+      <c r="U75">
+        <v>90.660296000000002</v>
+      </c>
+      <c r="V75">
+        <v>117.32508799999999</v>
+      </c>
+      <c r="W75">
+        <v>165.32171500000001</v>
+      </c>
+      <c r="X75">
+        <v>112.30583300000001</v>
+      </c>
+      <c r="Y75">
+        <v>117.952495</v>
+      </c>
+      <c r="Z75">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA75">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB75">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC75">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD75">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE75">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF75">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG75">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH75">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AI75">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="AJ75">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AK75">
+        <v>35.762193000000003</v>
+      </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0</v>
       </c>
@@ -2629,8 +8656,92 @@
       <c r="I76">
         <v>35.448489000000002</v>
       </c>
+      <c r="J76">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="K76">
+        <v>43.291074999999999</v>
+      </c>
+      <c r="L76">
+        <v>58.348841</v>
+      </c>
+      <c r="M76">
+        <v>61.799579000000001</v>
+      </c>
+      <c r="N76">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O76">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P76">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q76">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="R76">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="S76">
+        <v>11.920731</v>
+      </c>
+      <c r="T76">
+        <v>73.406605999999996</v>
+      </c>
+      <c r="U76">
+        <v>94.111033000000006</v>
+      </c>
+      <c r="V76">
+        <v>97.561770999999993</v>
+      </c>
+      <c r="W76">
+        <v>141.480254</v>
+      </c>
+      <c r="X76">
+        <v>110.109909</v>
+      </c>
+      <c r="Y76">
+        <v>113.246944</v>
+      </c>
+      <c r="Z76">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA76">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB76">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC76">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD76">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE76">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF76">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG76">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH76">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AI76">
+        <v>34.507379</v>
+      </c>
+      <c r="AJ76">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AK76">
+        <v>35.448489000000002</v>
+      </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>0.31370300000000001</v>
       </c>
@@ -2655,8 +8766,92 @@
       <c r="I77">
         <v>38.585523999999999</v>
       </c>
+      <c r="J77">
+        <v>39.212930999999998</v>
+      </c>
+      <c r="K77">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L77">
+        <v>63.054392</v>
+      </c>
+      <c r="M77">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="N77">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O77">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P77">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q77">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="R77">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="S77">
+        <v>10.979621</v>
+      </c>
+      <c r="T77">
+        <v>101.326213</v>
+      </c>
+      <c r="U77">
+        <v>95.679551000000004</v>
+      </c>
+      <c r="V77">
+        <v>89.405482000000006</v>
+      </c>
+      <c r="W77">
+        <v>393.38412</v>
+      </c>
+      <c r="X77">
+        <v>117.638792</v>
+      </c>
+      <c r="Y77">
+        <v>114.501757</v>
+      </c>
+      <c r="Z77">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA77">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB77">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC77">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD77">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AE77">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF77">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AG77">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH77">
+        <v>2002.9964950000001</v>
+      </c>
+      <c r="AI77">
+        <v>34.507379</v>
+      </c>
+      <c r="AJ77">
+        <v>34.193674999999999</v>
+      </c>
+      <c r="AK77">
+        <v>33.879972000000002</v>
+      </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>0.31370300000000001</v>
       </c>
@@ -2681,8 +8876,92 @@
       <c r="I78">
         <v>27.919606999999999</v>
       </c>
+      <c r="J78">
+        <v>19.763317000000001</v>
+      </c>
+      <c r="K78">
+        <v>118.89360600000001</v>
+      </c>
+      <c r="L78">
+        <v>58.662543999999997</v>
+      </c>
+      <c r="M78">
+        <v>70.269571999999997</v>
+      </c>
+      <c r="N78">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O78">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P78">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q78">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R78">
+        <v>7.215179</v>
+      </c>
+      <c r="S78">
+        <v>10.03851</v>
+      </c>
+      <c r="T78">
+        <v>92.228813000000002</v>
+      </c>
+      <c r="U78">
+        <v>88.150667999999996</v>
+      </c>
+      <c r="V78">
+        <v>92.228813000000002</v>
+      </c>
+      <c r="W78">
+        <v>148.69543300000001</v>
+      </c>
+      <c r="X78">
+        <v>135.51988800000001</v>
+      </c>
+      <c r="Y78">
+        <v>293.62642399999999</v>
+      </c>
+      <c r="Z78">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA78">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB78">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC78">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD78">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE78">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF78">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG78">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH78">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI78">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ78">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="AK78">
+        <v>33.252564999999997</v>
+      </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>0.31370300000000001</v>
       </c>
@@ -2707,8 +8986,92 @@
       <c r="I79">
         <v>17.567392999999999</v>
       </c>
+      <c r="J79">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="K79">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="L79">
+        <v>165.00801200000001</v>
+      </c>
+      <c r="M79">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="N79">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O79">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P79">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q79">
+        <v>10.03851</v>
+      </c>
+      <c r="R79">
+        <v>7.215179</v>
+      </c>
+      <c r="S79">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="T79">
+        <v>89.719184999999996</v>
+      </c>
+      <c r="U79">
+        <v>172.22319100000001</v>
+      </c>
+      <c r="V79">
+        <v>87.836965000000006</v>
+      </c>
+      <c r="W79">
+        <v>138.65692300000001</v>
+      </c>
+      <c r="X79">
+        <v>111.051019</v>
+      </c>
+      <c r="Y79">
+        <v>218.33759800000001</v>
+      </c>
+      <c r="Z79">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA79">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB79">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC79">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD79">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE79">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF79">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AG79">
+        <v>30.429234000000001</v>
+      </c>
+      <c r="AH79">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI79">
+        <v>34.507379</v>
+      </c>
+      <c r="AJ79">
+        <v>32.938862</v>
+      </c>
+      <c r="AK79">
+        <v>34.193674999999999</v>
+      </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>0.31370300000000001</v>
       </c>
@@ -2733,8 +9096,92 @@
       <c r="I80">
         <v>44.545889000000003</v>
       </c>
+      <c r="J80">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="K80">
+        <v>38.585523999999999</v>
+      </c>
+      <c r="L80">
+        <v>61.485875</v>
+      </c>
+      <c r="M80">
+        <v>63.368096000000001</v>
+      </c>
+      <c r="N80">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O80">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P80">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q80">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="R80">
+        <v>6.9014759999999997</v>
+      </c>
+      <c r="S80">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="T80">
+        <v>134.265074</v>
+      </c>
+      <c r="U80">
+        <v>108.85509500000001</v>
+      </c>
+      <c r="V80">
+        <v>91.915109000000001</v>
+      </c>
+      <c r="W80">
+        <v>312.76233500000001</v>
+      </c>
+      <c r="X80">
+        <v>116.070275</v>
+      </c>
+      <c r="Y80">
+        <v>138.97062600000001</v>
+      </c>
+      <c r="Z80">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA80">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB80">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC80">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AD80">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE80">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF80">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG80">
+        <v>20.704426999999999</v>
+      </c>
+      <c r="AH80">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AI80">
+        <v>34.507379</v>
+      </c>
+      <c r="AJ80">
+        <v>33.879972000000002</v>
+      </c>
+      <c r="AK80">
+        <v>35.134785999999998</v>
+      </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>0.31370300000000001</v>
       </c>
@@ -2759,8 +9206,92 @@
       <c r="I81">
         <v>17.567392999999999</v>
       </c>
+      <c r="J81">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="K81">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L81">
+        <v>59.289951000000002</v>
+      </c>
+      <c r="M81">
+        <v>41.408855000000003</v>
+      </c>
+      <c r="N81">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O81">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P81">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q81">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="R81">
+        <v>6.9014759999999997</v>
+      </c>
+      <c r="S81">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="T81">
+        <v>104.776951</v>
+      </c>
+      <c r="U81">
+        <v>94.424736999999993</v>
+      </c>
+      <c r="V81">
+        <v>88.778075000000001</v>
+      </c>
+      <c r="W81">
+        <v>135.206185</v>
+      </c>
+      <c r="X81">
+        <v>111.051019</v>
+      </c>
+      <c r="Y81">
+        <v>191.67280500000001</v>
+      </c>
+      <c r="Z81">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA81">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB81">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC81">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD81">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE81">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF81">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG81">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH81">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AI81">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ81">
+        <v>31.997751000000001</v>
+      </c>
+      <c r="AK81">
+        <v>32.625157999999999</v>
+      </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>0.31370300000000001</v>
       </c>
@@ -2785,8 +9316,92 @@
       <c r="I82">
         <v>16.939986000000001</v>
       </c>
+      <c r="J82">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="K82">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="L82">
+        <v>70.269571999999997</v>
+      </c>
+      <c r="M82">
+        <v>62.426985999999999</v>
+      </c>
+      <c r="N82">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O82">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P82">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="Q82">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R82">
+        <v>13.802951999999999</v>
+      </c>
+      <c r="S82">
+        <v>106.345468</v>
+      </c>
+      <c r="T82">
+        <v>97.248068000000004</v>
+      </c>
+      <c r="U82">
+        <v>91.915109000000001</v>
+      </c>
+      <c r="V82">
+        <v>86.268446999999995</v>
+      </c>
+      <c r="W82">
+        <v>188.22206700000001</v>
+      </c>
+      <c r="X82">
+        <v>109.482502</v>
+      </c>
+      <c r="Y82">
+        <v>154.96950200000001</v>
+      </c>
+      <c r="Z82">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA82">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB82">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC82">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD82">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE82">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF82">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG82">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH82">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI82">
+        <v>34.193674999999999</v>
+      </c>
+      <c r="AJ82">
+        <v>34.507379</v>
+      </c>
+      <c r="AK82">
+        <v>33.252564999999997</v>
+      </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>0.31370300000000001</v>
       </c>
@@ -2811,8 +9426,92 @@
       <c r="I83">
         <v>17.881095999999999</v>
       </c>
+      <c r="J83">
+        <v>36.075896</v>
+      </c>
+      <c r="K83">
+        <v>37.644413</v>
+      </c>
+      <c r="L83">
+        <v>65.250316999999995</v>
+      </c>
+      <c r="M83">
+        <v>59.289951000000002</v>
+      </c>
+      <c r="N83">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O83">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P83">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q83">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R83">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="S83">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="T83">
+        <v>115.75657099999999</v>
+      </c>
+      <c r="U83">
+        <v>92.542516000000006</v>
+      </c>
+      <c r="V83">
+        <v>95.052143999999998</v>
+      </c>
+      <c r="W83">
+        <v>128.304709</v>
+      </c>
+      <c r="X83">
+        <v>166.57652899999999</v>
+      </c>
+      <c r="Y83">
+        <v>137.08840499999999</v>
+      </c>
+      <c r="Z83">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA83">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB83">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC83">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD83">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE83">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF83">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG83">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH83">
+        <v>20.077020000000001</v>
+      </c>
+      <c r="AI83">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ83">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="AK83">
+        <v>34.193674999999999</v>
+      </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>0.31370300000000001</v>
       </c>
@@ -2837,8 +9536,92 @@
       <c r="I84">
         <v>17.253689000000001</v>
       </c>
+      <c r="J84">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K84">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="L84">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="M84">
+        <v>57.721434000000002</v>
+      </c>
+      <c r="N84">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O84">
+        <v>0.94111</v>
+      </c>
+      <c r="P84">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="Q84">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="R84">
+        <v>24.468869000000002</v>
+      </c>
+      <c r="S84">
+        <v>12.234434</v>
+      </c>
+      <c r="T84">
+        <v>75.288826999999998</v>
+      </c>
+      <c r="U84">
+        <v>87.836965000000006</v>
+      </c>
+      <c r="V84">
+        <v>74.347716000000005</v>
+      </c>
+      <c r="W84">
+        <v>112.61953699999999</v>
+      </c>
+      <c r="X84">
+        <v>114.18805399999999</v>
+      </c>
+      <c r="Y84">
+        <v>156.22431599999999</v>
+      </c>
+      <c r="Z84">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA84">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB84">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC84">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD84">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE84">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF84">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG84">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH84">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AI84">
+        <v>34.193674999999999</v>
+      </c>
+      <c r="AJ84">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AK84">
+        <v>855.46929399999999</v>
+      </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>0.31370300000000001</v>
       </c>
@@ -2863,8 +9646,92 @@
       <c r="I85">
         <v>18.194800000000001</v>
       </c>
+      <c r="J85">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="K85">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="L85">
+        <v>63.054392</v>
+      </c>
+      <c r="M85">
+        <v>58.662543999999997</v>
+      </c>
+      <c r="N85">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O85">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P85">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q85">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="R85">
+        <v>10.665917</v>
+      </c>
+      <c r="S85">
+        <v>10.979621</v>
+      </c>
+      <c r="T85">
+        <v>66.818833999999995</v>
+      </c>
+      <c r="U85">
+        <v>93.169922999999997</v>
+      </c>
+      <c r="V85">
+        <v>95.993253999999993</v>
+      </c>
+      <c r="W85">
+        <v>146.49950899999999</v>
+      </c>
+      <c r="X85">
+        <v>117.952495</v>
+      </c>
+      <c r="Y85">
+        <v>117.011385</v>
+      </c>
+      <c r="Z85">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA85">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB85">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC85">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD85">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE85">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF85">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG85">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH85">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI85">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ85">
+        <v>34.193674999999999</v>
+      </c>
+      <c r="AK85">
+        <v>34.821081999999997</v>
+      </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>0.31370300000000001</v>
       </c>
@@ -2889,8 +9756,92 @@
       <c r="I86">
         <v>18.822206999999999</v>
       </c>
+      <c r="J86">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="K86">
+        <v>37.644413</v>
+      </c>
+      <c r="L86">
+        <v>34.507379</v>
+      </c>
+      <c r="M86">
+        <v>61.172172000000003</v>
+      </c>
+      <c r="N86">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O86">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P86">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q86">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="R86">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="S86">
+        <v>10.665917</v>
+      </c>
+      <c r="T86">
+        <v>69.328461000000004</v>
+      </c>
+      <c r="U86">
+        <v>91.915109000000001</v>
+      </c>
+      <c r="V86">
+        <v>90.660296000000002</v>
+      </c>
+      <c r="W86">
+        <v>133.63766799999999</v>
+      </c>
+      <c r="X86">
+        <v>120.148419</v>
+      </c>
+      <c r="Y86">
+        <v>153.40098499999999</v>
+      </c>
+      <c r="Z86">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA86">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB86">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC86">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD86">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE86">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF86">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG86">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AH86">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI86">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="AJ86">
+        <v>33.879972000000002</v>
+      </c>
+      <c r="AK86">
+        <v>34.193674999999999</v>
+      </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>0.31370300000000001</v>
       </c>
@@ -2915,8 +9866,92 @@
       <c r="I87">
         <v>17.881095999999999</v>
       </c>
+      <c r="J87">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K87">
+        <v>71.524384999999995</v>
+      </c>
+      <c r="L87">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="M87">
+        <v>72.465496000000002</v>
+      </c>
+      <c r="N87">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O87">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P87">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q87">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R87">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="S87">
+        <v>10.03851</v>
+      </c>
+      <c r="T87">
+        <v>77.484751000000003</v>
+      </c>
+      <c r="U87">
+        <v>75.602530000000002</v>
+      </c>
+      <c r="V87">
+        <v>98.189177999999998</v>
+      </c>
+      <c r="W87">
+        <v>162.18468100000001</v>
+      </c>
+      <c r="X87">
+        <v>112.93324</v>
+      </c>
+      <c r="Y87">
+        <v>115.129164</v>
+      </c>
+      <c r="Z87">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA87">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB87">
+        <v>0.94111</v>
+      </c>
+      <c r="AC87">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AD87">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE87">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AF87">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG87">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AH87">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI87">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="AJ87">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AK87">
+        <v>33.566268999999998</v>
+      </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>0.31370300000000001</v>
       </c>
@@ -2941,8 +9976,92 @@
       <c r="I88">
         <v>17.567392999999999</v>
       </c>
+      <c r="J88">
+        <v>65.564019999999999</v>
+      </c>
+      <c r="K88">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="L88">
+        <v>36.075896</v>
+      </c>
+      <c r="M88">
+        <v>64.622910000000005</v>
+      </c>
+      <c r="N88">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O88">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P88">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q88">
+        <v>10.352214</v>
+      </c>
+      <c r="R88">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="S88">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="T88">
+        <v>72.151792</v>
+      </c>
+      <c r="U88">
+        <v>100.698806</v>
+      </c>
+      <c r="V88">
+        <v>90.660296000000002</v>
+      </c>
+      <c r="W88">
+        <v>192.30021199999999</v>
+      </c>
+      <c r="X88">
+        <v>116.070275</v>
+      </c>
+      <c r="Y88">
+        <v>136.46099899999999</v>
+      </c>
+      <c r="Z88">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA88">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB88">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC88">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD88">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE88">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF88">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG88">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH88">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI88">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="AJ88">
+        <v>32.625157999999999</v>
+      </c>
+      <c r="AK88">
+        <v>33.566268999999998</v>
+      </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>0.31370300000000001</v>
       </c>
@@ -2967,8 +10086,92 @@
       <c r="I89">
         <v>16.939986000000001</v>
       </c>
+      <c r="J89">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="K89">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="L89">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="M89">
+        <v>59.917358</v>
+      </c>
+      <c r="N89">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O89">
+        <v>0.94111</v>
+      </c>
+      <c r="P89">
+        <v>0.94111</v>
+      </c>
+      <c r="Q89">
+        <v>10.352214</v>
+      </c>
+      <c r="R89">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="S89">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="T89">
+        <v>73.720309999999998</v>
+      </c>
+      <c r="U89">
+        <v>97.248068000000004</v>
+      </c>
+      <c r="V89">
+        <v>90.032888999999997</v>
+      </c>
+      <c r="W89">
+        <v>126.736192</v>
+      </c>
+      <c r="X89">
+        <v>111.99213</v>
+      </c>
+      <c r="Y89">
+        <v>147.12691599999999</v>
+      </c>
+      <c r="Z89">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA89">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB89">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC89">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD89">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE89">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF89">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG89">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH89">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI89">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="AJ89">
+        <v>33.566268999999998</v>
+      </c>
+      <c r="AK89">
+        <v>35.134785999999998</v>
+      </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>0</v>
       </c>
@@ -2993,8 +10196,92 @@
       <c r="I90">
         <v>16.939986000000001</v>
       </c>
+      <c r="J90">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="K90">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="L90">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="M90">
+        <v>60.544764999999998</v>
+      </c>
+      <c r="N90">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O90">
+        <v>0.94111</v>
+      </c>
+      <c r="P90">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q90">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="R90">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="S90">
+        <v>10.352214</v>
+      </c>
+      <c r="T90">
+        <v>111.051019</v>
+      </c>
+      <c r="U90">
+        <v>92.856219999999993</v>
+      </c>
+      <c r="V90">
+        <v>90.660296000000002</v>
+      </c>
+      <c r="W90">
+        <v>127.36359899999999</v>
+      </c>
+      <c r="X90">
+        <v>113.87435000000001</v>
+      </c>
+      <c r="Y90">
+        <v>275.74532799999997</v>
+      </c>
+      <c r="Z90">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA90">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB90">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC90">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD90">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE90">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF90">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG90">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH90">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI90">
+        <v>34.507379</v>
+      </c>
+      <c r="AJ90">
+        <v>33.252564999999997</v>
+      </c>
+      <c r="AK90">
+        <v>33.252564999999997</v>
+      </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>0.31370300000000001</v>
       </c>
@@ -3019,8 +10306,92 @@
       <c r="I91">
         <v>16.626283000000001</v>
       </c>
+      <c r="J91">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="K91">
+        <v>45.800702999999999</v>
+      </c>
+      <c r="L91">
+        <v>34.507379</v>
+      </c>
+      <c r="M91">
+        <v>64.309206000000003</v>
+      </c>
+      <c r="N91">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="O91">
+        <v>0.94111</v>
+      </c>
+      <c r="P91">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q91">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R91">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="S91">
+        <v>10.03851</v>
+      </c>
+      <c r="T91">
+        <v>152.14617100000001</v>
+      </c>
+      <c r="U91">
+        <v>147.12691599999999</v>
+      </c>
+      <c r="V91">
+        <v>70.583275</v>
+      </c>
+      <c r="W91">
+        <v>137.402109</v>
+      </c>
+      <c r="X91">
+        <v>114.501757</v>
+      </c>
+      <c r="Y91">
+        <v>140.22543999999999</v>
+      </c>
+      <c r="Z91">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA91">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB91">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC91">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD91">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE91">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF91">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AG91">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH91">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AI91">
+        <v>34.193674999999999</v>
+      </c>
+      <c r="AJ91">
+        <v>37.958117000000001</v>
+      </c>
+      <c r="AK91">
+        <v>35.134785999999998</v>
+      </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>0.31370300000000001</v>
       </c>
@@ -3045,8 +10416,92 @@
       <c r="I92">
         <v>18.194800000000001</v>
       </c>
+      <c r="J92">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="K92">
+        <v>39.212930999999998</v>
+      </c>
+      <c r="L92">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="M92">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="N92">
+        <v>0.94111</v>
+      </c>
+      <c r="O92">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="P92">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q92">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R92">
+        <v>10.665917</v>
+      </c>
+      <c r="S92">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="T92">
+        <v>112.61953699999999</v>
+      </c>
+      <c r="U92">
+        <v>126.108785</v>
+      </c>
+      <c r="V92">
+        <v>99.443991999999994</v>
+      </c>
+      <c r="W92">
+        <v>153.40098499999999</v>
+      </c>
+      <c r="X92">
+        <v>164.066902</v>
+      </c>
+      <c r="Y92">
+        <v>149.32284000000001</v>
+      </c>
+      <c r="Z92">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA92">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB92">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC92">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD92">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE92">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF92">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AG92">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH92">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI92">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AJ92">
+        <v>34.507379</v>
+      </c>
+      <c r="AK92">
+        <v>33.879972000000002</v>
+      </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>0.31370300000000001</v>
       </c>
@@ -3071,8 +10526,92 @@
       <c r="I93">
         <v>17.253689000000001</v>
       </c>
+      <c r="J93">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="K93">
+        <v>43.918481999999997</v>
+      </c>
+      <c r="L93">
+        <v>34.507379</v>
+      </c>
+      <c r="M93">
+        <v>61.172172000000003</v>
+      </c>
+      <c r="N93">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O93">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P93">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q93">
+        <v>7.215179</v>
+      </c>
+      <c r="R93">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="S93">
+        <v>10.979621</v>
+      </c>
+      <c r="T93">
+        <v>127.36359899999999</v>
+      </c>
+      <c r="U93">
+        <v>822.84413600000005</v>
+      </c>
+      <c r="V93">
+        <v>187.59466</v>
+      </c>
+      <c r="W93">
+        <v>148.38172900000001</v>
+      </c>
+      <c r="X93">
+        <v>108.85509500000001</v>
+      </c>
+      <c r="Y93">
+        <v>155.59690900000001</v>
+      </c>
+      <c r="Z93">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA93">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB93">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC93">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AD93">
+        <v>14.744062</v>
+      </c>
+      <c r="AE93">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF93">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG93">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH93">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI93">
+        <v>36.075896</v>
+      </c>
+      <c r="AJ93">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="AK93">
+        <v>33.879972000000002</v>
+      </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>0.31370300000000001</v>
       </c>
@@ -3097,8 +10636,92 @@
       <c r="I94">
         <v>36.075896</v>
       </c>
+      <c r="J94">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="K94">
+        <v>37.644413</v>
+      </c>
+      <c r="L94">
+        <v>34.193674999999999</v>
+      </c>
+      <c r="M94">
+        <v>60.544764999999998</v>
+      </c>
+      <c r="N94">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O94">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P94">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q94">
+        <v>6.9014759999999997</v>
+      </c>
+      <c r="R94">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="S94">
+        <v>9.7248070000000002</v>
+      </c>
+      <c r="T94">
+        <v>98.502882</v>
+      </c>
+      <c r="U94">
+        <v>145.55839800000001</v>
+      </c>
+      <c r="V94">
+        <v>87.209558000000001</v>
+      </c>
+      <c r="W94">
+        <v>141.16655</v>
+      </c>
+      <c r="X94">
+        <v>136.77470199999999</v>
+      </c>
+      <c r="Y94">
+        <v>131.755447</v>
+      </c>
+      <c r="Z94">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA94">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB94">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AC94">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD94">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE94">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF94">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG94">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AH94">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI94">
+        <v>35.762193000000003</v>
+      </c>
+      <c r="AJ94">
+        <v>33.566268999999998</v>
+      </c>
+      <c r="AK94">
+        <v>33.879972000000002</v>
+      </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>0.31370300000000001</v>
       </c>
@@ -3123,8 +10746,92 @@
       <c r="I95">
         <v>34.507379</v>
       </c>
+      <c r="J95">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="K95">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="L95">
+        <v>36.075896</v>
+      </c>
+      <c r="M95">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="N95">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O95">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P95">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q95">
+        <v>7.215179</v>
+      </c>
+      <c r="R95">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="S95">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="T95">
+        <v>92.856219999999993</v>
+      </c>
+      <c r="U95">
+        <v>100.385102</v>
+      </c>
+      <c r="V95">
+        <v>90.973999000000006</v>
+      </c>
+      <c r="W95">
+        <v>134.265074</v>
+      </c>
+      <c r="X95">
+        <v>848.88152200000002</v>
+      </c>
+      <c r="Y95">
+        <v>138.65692300000001</v>
+      </c>
+      <c r="Z95">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA95">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB95">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC95">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AD95">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE95">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF95">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG95">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH95">
+        <v>18.822206999999999</v>
+      </c>
+      <c r="AI95">
+        <v>36.075896</v>
+      </c>
+      <c r="AJ95">
+        <v>34.193674999999999</v>
+      </c>
+      <c r="AK95">
+        <v>34.507379</v>
+      </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>0.31370300000000001</v>
       </c>
@@ -3149,8 +10856,92 @@
       <c r="I96">
         <v>36.075896</v>
       </c>
+      <c r="J96">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="K96">
+        <v>36.389600000000002</v>
+      </c>
+      <c r="L96">
+        <v>65.877723000000003</v>
+      </c>
+      <c r="M96">
+        <v>63.995502999999999</v>
+      </c>
+      <c r="N96">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="O96">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P96">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q96">
+        <v>10.03851</v>
+      </c>
+      <c r="R96">
+        <v>7.215179</v>
+      </c>
+      <c r="S96">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="T96">
+        <v>77.484751000000003</v>
+      </c>
+      <c r="U96">
+        <v>105.090654</v>
+      </c>
+      <c r="V96">
+        <v>88.150667999999996</v>
+      </c>
+      <c r="W96">
+        <v>128.61841200000001</v>
+      </c>
+      <c r="X96">
+        <v>113.246944</v>
+      </c>
+      <c r="Y96">
+        <v>140.852847</v>
+      </c>
+      <c r="Z96">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA96">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB96">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC96">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD96">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE96">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="AF96">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG96">
+        <v>16.626283000000001</v>
+      </c>
+      <c r="AH96">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AI96">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ96">
+        <v>32.938862</v>
+      </c>
+      <c r="AK96">
+        <v>35.448489000000002</v>
+      </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>0.31370300000000001</v>
       </c>
@@ -3175,8 +10966,92 @@
       <c r="I97">
         <v>28.233309999999999</v>
       </c>
+      <c r="J97">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="K97">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="L97">
+        <v>69.328461000000004</v>
+      </c>
+      <c r="M97">
+        <v>59.289951000000002</v>
+      </c>
+      <c r="N97">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O97">
+        <v>0.94111</v>
+      </c>
+      <c r="P97">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q97">
+        <v>10.979621</v>
+      </c>
+      <c r="R97">
+        <v>9.4111030000000007</v>
+      </c>
+      <c r="S97">
+        <v>9.0974000000000004</v>
+      </c>
+      <c r="T97">
+        <v>70.583275</v>
+      </c>
+      <c r="U97">
+        <v>130.50063299999999</v>
+      </c>
+      <c r="V97">
+        <v>98.189177999999998</v>
+      </c>
+      <c r="W97">
+        <v>127.36359899999999</v>
+      </c>
+      <c r="X97">
+        <v>117.952495</v>
+      </c>
+      <c r="Y97">
+        <v>260.68756300000001</v>
+      </c>
+      <c r="Z97">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA97">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB97">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC97">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD97">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE97">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF97">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AG97">
+        <v>20.077020000000001</v>
+      </c>
+      <c r="AH97">
+        <v>20.390723999999999</v>
+      </c>
+      <c r="AI97">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="AJ97">
+        <v>33.252564999999997</v>
+      </c>
+      <c r="AK97">
+        <v>32.625157999999999</v>
+      </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>0.31370300000000001</v>
       </c>
@@ -3201,8 +11076,92 @@
       <c r="I98">
         <v>36.075896</v>
       </c>
+      <c r="J98">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="K98">
+        <v>74.347716000000005</v>
+      </c>
+      <c r="L98">
+        <v>63.681798999999998</v>
+      </c>
+      <c r="M98">
+        <v>61.799579000000001</v>
+      </c>
+      <c r="N98">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="O98">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="P98">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="Q98">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="R98">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="S98">
+        <v>41.408855000000003</v>
+      </c>
+      <c r="T98">
+        <v>79.053268000000003</v>
+      </c>
+      <c r="U98">
+        <v>90.660296000000002</v>
+      </c>
+      <c r="V98">
+        <v>91.287701999999996</v>
+      </c>
+      <c r="W98">
+        <v>131.441743</v>
+      </c>
+      <c r="X98">
+        <v>114.815461</v>
+      </c>
+      <c r="Y98">
+        <v>195.43724599999999</v>
+      </c>
+      <c r="Z98">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA98">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB98">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC98">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AD98">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE98">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF98">
+        <v>20.077020000000001</v>
+      </c>
+      <c r="AG98">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AH98">
+        <v>42.977372000000003</v>
+      </c>
+      <c r="AI98">
+        <v>34.821081999999997</v>
+      </c>
+      <c r="AJ98">
+        <v>33.566268999999998</v>
+      </c>
+      <c r="AK98">
+        <v>33.566268999999998</v>
+      </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>0.31370300000000001</v>
       </c>
@@ -3227,8 +11186,92 @@
       <c r="I99">
         <v>17.253689000000001</v>
       </c>
+      <c r="J99">
+        <v>36.075896</v>
+      </c>
+      <c r="K99">
+        <v>246.257204</v>
+      </c>
+      <c r="L99">
+        <v>59.289951000000002</v>
+      </c>
+      <c r="M99">
+        <v>60.858468000000002</v>
+      </c>
+      <c r="N99">
+        <v>0.94111</v>
+      </c>
+      <c r="O99">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="P99">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="Q99">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="R99">
+        <v>8.1562900000000003</v>
+      </c>
+      <c r="S99">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="T99">
+        <v>69.642165000000006</v>
+      </c>
+      <c r="U99">
+        <v>87.209558000000001</v>
+      </c>
+      <c r="V99">
+        <v>85.954744000000005</v>
+      </c>
+      <c r="W99">
+        <v>335.035279</v>
+      </c>
+      <c r="X99">
+        <v>130.18692999999999</v>
+      </c>
+      <c r="Y99">
+        <v>142.42136400000001</v>
+      </c>
+      <c r="Z99">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA99">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB99">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC99">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD99">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE99">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AF99">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AG99">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AH99">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI99">
+        <v>37.330710000000003</v>
+      </c>
+      <c r="AJ99">
+        <v>33.566268999999998</v>
+      </c>
+      <c r="AK99">
+        <v>34.193674999999999</v>
+      </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>0.31370300000000001</v>
       </c>
@@ -3253,8 +11296,92 @@
       <c r="I100">
         <v>18.822206999999999</v>
       </c>
+      <c r="J100">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="K100">
+        <v>456.75221599999998</v>
+      </c>
+      <c r="L100">
+        <v>59.917358</v>
+      </c>
+      <c r="M100">
+        <v>62.426985999999999</v>
+      </c>
+      <c r="N100">
+        <v>0.94111</v>
+      </c>
+      <c r="O100">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P100">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="Q100">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="R100">
+        <v>10.665917</v>
+      </c>
+      <c r="S100">
+        <v>7.8425859999999998</v>
+      </c>
+      <c r="T100">
+        <v>109.796206</v>
+      </c>
+      <c r="U100">
+        <v>85.013633999999996</v>
+      </c>
+      <c r="V100">
+        <v>100.385102</v>
+      </c>
+      <c r="W100">
+        <v>150.891357</v>
+      </c>
+      <c r="X100">
+        <v>111.678426</v>
+      </c>
+      <c r="Y100">
+        <v>140.539143</v>
+      </c>
+      <c r="Z100">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA100">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB100">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC100">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD100">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AE100">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AF100">
+        <v>18.822206999999999</v>
+      </c>
+      <c r="AG100">
+        <v>18.194800000000001</v>
+      </c>
+      <c r="AH100">
+        <v>19.135909999999999</v>
+      </c>
+      <c r="AI100">
+        <v>36.075896</v>
+      </c>
+      <c r="AJ100">
+        <v>32.311455000000002</v>
+      </c>
+      <c r="AK100">
+        <v>32.938862</v>
+      </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>0</v>
       </c>
@@ -3279,8 +11406,92 @@
       <c r="I101">
         <v>36.703302999999998</v>
       </c>
+      <c r="J101">
+        <v>38.271819999999998</v>
+      </c>
+      <c r="K101">
+        <v>37.017006000000002</v>
+      </c>
+      <c r="L101">
+        <v>60.858468000000002</v>
+      </c>
+      <c r="M101">
+        <v>62.740689000000003</v>
+      </c>
+      <c r="N101">
+        <v>0.94111</v>
+      </c>
+      <c r="O101">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P101">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="Q101">
+        <v>6.9014759999999997</v>
+      </c>
+      <c r="R101">
+        <v>10.352214</v>
+      </c>
+      <c r="S101">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="T101">
+        <v>602.31061399999999</v>
+      </c>
+      <c r="U101">
+        <v>91.287701999999996</v>
+      </c>
+      <c r="V101">
+        <v>95.993253999999993</v>
+      </c>
+      <c r="W101">
+        <v>134.892481</v>
+      </c>
+      <c r="X101">
+        <v>107.60028200000001</v>
+      </c>
+      <c r="Y101">
+        <v>109.796206</v>
+      </c>
+      <c r="Z101">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA101">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB101">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC101">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AD101">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE101">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF101">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="AG101">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH101">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AI101">
+        <v>38.585523999999999</v>
+      </c>
+      <c r="AJ101">
+        <v>32.938862</v>
+      </c>
+      <c r="AK101">
+        <v>32.938862</v>
+      </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>0.31370300000000001</v>
       </c>
@@ -3305,8 +11516,92 @@
       <c r="I102">
         <v>28.233309999999999</v>
       </c>
+      <c r="J102">
+        <v>18.508503000000001</v>
+      </c>
+      <c r="K102">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="L102">
+        <v>57.721434000000002</v>
+      </c>
+      <c r="M102">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="N102">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O102">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="P102">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="Q102">
+        <v>7.215179</v>
+      </c>
+      <c r="R102">
+        <v>8.7836960000000008</v>
+      </c>
+      <c r="S102">
+        <v>10.979621</v>
+      </c>
+      <c r="T102">
+        <v>73.092903000000007</v>
+      </c>
+      <c r="U102">
+        <v>83.445115999999999</v>
+      </c>
+      <c r="V102">
+        <v>92.542516000000006</v>
+      </c>
+      <c r="W102">
+        <v>139.28433000000001</v>
+      </c>
+      <c r="X102">
+        <v>120.148419</v>
+      </c>
+      <c r="Y102">
+        <v>136.14729500000001</v>
+      </c>
+      <c r="Z102">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AA102">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AB102">
+        <v>0.94111</v>
+      </c>
+      <c r="AC102">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD102">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE102">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="AF102">
+        <v>17.881095999999999</v>
+      </c>
+      <c r="AG102">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AH102">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AI102">
+        <v>35.448489000000002</v>
+      </c>
+      <c r="AJ102">
+        <v>32.625157999999999</v>
+      </c>
+      <c r="AK102">
+        <v>34.507379</v>
+      </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>0.31370300000000001</v>
       </c>
@@ -3331,40 +11626,98 @@
       <c r="I103">
         <v>37.330710000000003</v>
       </c>
+      <c r="J103">
+        <v>36.703302999999998</v>
+      </c>
+      <c r="K103">
+        <v>71.524384999999995</v>
+      </c>
+      <c r="L103">
+        <v>64.936612999999994</v>
+      </c>
+      <c r="M103">
+        <v>63.054392</v>
+      </c>
+      <c r="N103">
+        <v>1.5685169999999999</v>
+      </c>
+      <c r="O103">
+        <v>1.2548140000000001</v>
+      </c>
+      <c r="P103">
+        <v>0.94111</v>
+      </c>
+      <c r="Q103">
+        <v>7.5288830000000004</v>
+      </c>
+      <c r="R103">
+        <v>8.4699930000000005</v>
+      </c>
+      <c r="S103">
+        <v>10.979621</v>
+      </c>
+      <c r="T103">
+        <v>74.975122999999996</v>
+      </c>
+      <c r="U103">
+        <v>135.206185</v>
+      </c>
+      <c r="V103">
+        <v>129.24581900000001</v>
+      </c>
+      <c r="W103">
+        <v>98.189177999999998</v>
+      </c>
+      <c r="X103">
+        <v>102.267323</v>
+      </c>
+      <c r="Y103">
+        <v>1142.5079459999999</v>
+      </c>
+      <c r="Z103">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AA103">
+        <v>0.31370300000000001</v>
+      </c>
+      <c r="AB103">
+        <v>0.62740700000000005</v>
+      </c>
+      <c r="AC103">
+        <v>2.1959240000000002</v>
+      </c>
+      <c r="AD103">
+        <v>2.5096280000000002</v>
+      </c>
+      <c r="AE103">
+        <v>1.8822209999999999</v>
+      </c>
+      <c r="AF103">
+        <v>17.567392999999999</v>
+      </c>
+      <c r="AG103">
+        <v>16.939986000000001</v>
+      </c>
+      <c r="AH103">
+        <v>17.253689000000001</v>
+      </c>
+      <c r="AI103">
+        <v>35.134785999999998</v>
+      </c>
+      <c r="AJ103">
+        <v>32.625157999999999</v>
+      </c>
+      <c r="AK103">
+        <v>34.821081999999997</v>
+      </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>6</v>
-      </c>
-      <c r="C104" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="N1:Y1"/>
     <mergeCell ref="Z1:AK1"/>
@@ -3375,7 +11728,13 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wyniki/wyniki - dodatek.xlsx
+++ b/wyniki/wyniki - dodatek.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barto\Desktop\DataStructuresSDiZO\wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3245EC29-5837-4791-AC40-B4AFCA9FD6CD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A5BD6C-BA05-48E7-9E7D-9498C530D7C8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{0C1C1C42-A423-4E47-8A91-76E913E484E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,19 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>miejsce</t>
-  </si>
-  <si>
-    <t>poczatek</t>
-  </si>
-  <si>
-    <t>srodek</t>
-  </si>
-  <si>
-    <t>koniec</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ilosc</t>
   </si>
@@ -46,6 +37,27 @@
   </si>
   <si>
     <t>Średnia</t>
+  </si>
+  <si>
+    <t>struktura</t>
+  </si>
+  <si>
+    <t>tablica</t>
+  </si>
+  <si>
+    <t>lista</t>
+  </si>
+  <si>
+    <t>kopiec</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie - tablica</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie - lista</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie - kopiec</t>
   </si>
 </sst>
 </file>
@@ -173,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,6 +212,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,6 +230,3607 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Wyszukiwanie - tablica</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$120</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$119:$E$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$120:$E$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.30586042500000021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1763175999999986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.237512412499989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.722417525000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75D8-441E-AB29-B029BF1BAFF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16383</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$119:$E$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$121:$E$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.31762430000000019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1802388999999986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.805818775000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.70168683750002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75D8-441E-AB29-B029BF1BAFF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32767</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$119:$E$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$122:$E$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.31370300000000018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0547576499999978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.24521438750002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.501771237499995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-75D8-441E-AB29-B029BF1BAFF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1148176239"/>
+        <c:axId val="1036248319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1148176239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1036248319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4000"/>
+        <c:minorUnit val="1000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1036248319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1148176239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Wyszukiwanie - lista</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$120</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$119:$Q$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$120:$Q$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5489107999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6935067499999956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.875755962499966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.59817348750008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-932B-47FE-9A1B-D8521B48F0D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16383</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$119:$Q$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$121:$Q$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.2430499624999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2777793625000093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.499100900000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124.17166610000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-932B-47FE-9A1B-D8521B48F0D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32767</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$119:$Q$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$122:$Q$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3959803374999982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7052003249999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.938215487500003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144.05262193749996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-932B-47FE-9A1B-D8521B48F0D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1148176239"/>
+        <c:axId val="1036248319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1148176239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1036248319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4000"/>
+        <c:minorUnit val="1000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1036248319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1148176239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Wyszukiwanie - kopiec</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$120</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$119:$AC$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$120:$AC$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.50584669999999943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2429795999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.786985199999986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.593577037500026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B542-4B10-AEC0-4D9AF42C517D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16383</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$119:$AC$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$121:$AC$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.42349939999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2939564999999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.147814512500013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.797624874999961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B542-4B10-AEC0-4D9AF42C517D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32767</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$119:$AC$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$122:$AC$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.49408279999999943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0586789374999976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.80267038749999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.009374662499951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B542-4B10-AEC0-4D9AF42C517D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1148176239"/>
+        <c:axId val="1036248319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1148176239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1036248319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4000"/>
+        <c:minorUnit val="1000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1036248319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1148176239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA084EC9-DB9C-4CBB-9526-D3776E72A364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED72B71A-29FB-4C6A-B4C7-B42D73B9D07A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1439EA6C-C695-448F-80DF-39BF7BFFF61A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Lista - dodawanie"/>
+      <sheetName val="Lista - usuwanie"/>
+      <sheetName val="Kopiec"/>
+      <sheetName val="Tablica - dodawanie"/>
+      <sheetName val="Tablica - usuwanie"/>
+      <sheetName val="Porównanie"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="119">
+          <cell r="B119">
+            <v>100</v>
+          </cell>
+          <cell r="C119">
+            <v>1000</v>
+          </cell>
+          <cell r="D119">
+            <v>10000</v>
+          </cell>
+          <cell r="E119">
+            <v>20000</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>100</v>
+          </cell>
+          <cell r="B120">
+            <v>0.2744910000000001</v>
+          </cell>
+          <cell r="C120">
+            <v>2.1880824499999991</v>
+          </cell>
+          <cell r="D120">
+            <v>19.904495799999967</v>
+          </cell>
+          <cell r="E120">
+            <v>39.475681900000012</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>16383</v>
+          </cell>
+          <cell r="B121">
+            <v>0.26664840000000006</v>
+          </cell>
+          <cell r="C121">
+            <v>2.1959249999999981</v>
+          </cell>
+          <cell r="D121">
+            <v>19.931944899999969</v>
+          </cell>
+          <cell r="E121">
+            <v>39.475681925000018</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>32767</v>
+          </cell>
+          <cell r="B122">
+            <v>0.25880580000000003</v>
+          </cell>
+          <cell r="C122">
+            <v>2.184161137499999</v>
+          </cell>
+          <cell r="D122">
+            <v>19.979000499999973</v>
+          </cell>
+          <cell r="E122">
+            <v>39.518816162500009</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,10 +4131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EBE452-9F4C-4708-8AA7-E5180A7BEE15}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AK104"/>
+  <dimension ref="A1:AK122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="J141" sqref="J141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,10 +4144,10 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -545,7 +4161,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="6"/>
       <c r="N1" s="7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -559,7 +4175,7 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
@@ -575,7 +4191,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="7">
         <v>50</v>
@@ -640,7 +4256,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
@@ -751,1115 +4367,65 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
-      <c r="B4">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="C4">
-        <v>118.579902</v>
-      </c>
-      <c r="D4">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="E4">
-        <v>5.9603650000000004</v>
-      </c>
-      <c r="F4">
-        <v>81.876598999999999</v>
-      </c>
-      <c r="G4">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="H4">
-        <v>210.181308</v>
-      </c>
-      <c r="I4">
-        <v>1056.866906</v>
-      </c>
-      <c r="J4">
-        <v>275.11792100000002</v>
-      </c>
-      <c r="K4">
-        <v>3138.6029659999999</v>
-      </c>
-      <c r="L4">
-        <v>165.00801200000001</v>
-      </c>
-      <c r="M4" s="8">
-        <v>186.33984599999999</v>
-      </c>
-      <c r="N4">
-        <v>82.504006000000004</v>
-      </c>
-      <c r="O4">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="P4">
-        <v>4.3918480000000004</v>
-      </c>
-      <c r="Q4">
-        <v>41.408855000000003</v>
-      </c>
-      <c r="R4">
-        <v>83.131412999999995</v>
-      </c>
-      <c r="S4">
-        <v>106.345468</v>
-      </c>
-      <c r="T4">
-        <v>602.31061399999999</v>
-      </c>
-      <c r="U4">
-        <v>822.84413600000005</v>
-      </c>
-      <c r="V4">
-        <v>234.02277000000001</v>
-      </c>
-      <c r="W4">
-        <v>393.38412</v>
-      </c>
-      <c r="X4">
-        <v>848.88152200000002</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>1579.183141</v>
-      </c>
-      <c r="Z4">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AA4">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AB4">
-        <v>0.94111</v>
-      </c>
-      <c r="AC4">
-        <v>187.59466</v>
-      </c>
-      <c r="AD4">
-        <v>14.744062</v>
-      </c>
-      <c r="AE4">
-        <v>54.270696000000001</v>
-      </c>
-      <c r="AF4">
-        <v>20.077020000000001</v>
-      </c>
-      <c r="AG4">
-        <v>30.429234000000001</v>
-      </c>
-      <c r="AH4">
-        <v>2002.9964950000001</v>
-      </c>
-      <c r="AI4">
-        <v>93.797330000000002</v>
-      </c>
-      <c r="AJ4">
-        <v>123.91286100000001</v>
-      </c>
-      <c r="AK4" s="8">
-        <v>855.46929399999999</v>
-      </c>
+      <c r="M4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="AK4" s="8"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="C5">
-        <v>7.215179</v>
-      </c>
-      <c r="D5">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="E5">
-        <v>5.3329589999999998</v>
-      </c>
-      <c r="F5">
-        <v>55.525509999999997</v>
-      </c>
-      <c r="G5">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="H5">
-        <v>173.791708</v>
-      </c>
-      <c r="I5">
-        <v>262.25608</v>
-      </c>
-      <c r="J5">
-        <v>241.86535599999999</v>
-      </c>
-      <c r="K5">
-        <v>911.62221099999999</v>
-      </c>
-      <c r="L5">
-        <v>155.59690900000001</v>
-      </c>
-      <c r="M5" s="8">
-        <v>165.94912199999999</v>
-      </c>
-      <c r="N5">
-        <v>20.704426999999999</v>
-      </c>
-      <c r="O5">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="P5">
-        <v>4.0781450000000001</v>
-      </c>
-      <c r="Q5">
-        <v>18.822206999999999</v>
-      </c>
-      <c r="R5">
-        <v>31.056640999999999</v>
-      </c>
-      <c r="S5">
-        <v>49.565143999999997</v>
-      </c>
-      <c r="T5">
-        <v>292.99901699999998</v>
-      </c>
-      <c r="U5">
-        <v>432.28334699999999</v>
-      </c>
-      <c r="V5">
-        <v>190.731694</v>
-      </c>
-      <c r="W5">
-        <v>335.035279</v>
-      </c>
-      <c r="X5">
-        <v>538.94251799999995</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>1142.5079459999999</v>
-      </c>
-      <c r="Z5">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AA5">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AB5">
-        <v>0.94111</v>
-      </c>
-      <c r="AC5">
-        <v>30.429234000000001</v>
-      </c>
-      <c r="AD5">
-        <v>4.3918480000000004</v>
-      </c>
-      <c r="AE5">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="AF5">
-        <v>19.135909999999999</v>
-      </c>
-      <c r="AG5">
-        <v>23.841462</v>
-      </c>
-      <c r="AH5">
-        <v>42.977372000000003</v>
-      </c>
-      <c r="AI5">
-        <v>72.151792</v>
-      </c>
-      <c r="AJ5">
-        <v>40.467744000000003</v>
-      </c>
-      <c r="AK5" s="8">
-        <v>37.958117000000001</v>
-      </c>
+      <c r="M5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="AK5" s="8"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="C6">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="D6">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="E6">
-        <v>2.823331</v>
-      </c>
-      <c r="F6">
-        <v>53.015881999999998</v>
-      </c>
-      <c r="G6">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="H6">
-        <v>131.755447</v>
-      </c>
-      <c r="I6">
-        <v>124.853971</v>
-      </c>
-      <c r="J6">
-        <v>142.73506699999999</v>
-      </c>
-      <c r="K6">
-        <v>666.61982</v>
-      </c>
-      <c r="L6">
-        <v>107.913985</v>
-      </c>
-      <c r="M6" s="8">
-        <v>143.989881</v>
-      </c>
-      <c r="N6">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="O6">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="P6">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="Q6">
-        <v>15.057765</v>
-      </c>
-      <c r="R6">
-        <v>24.468869000000002</v>
-      </c>
-      <c r="S6">
-        <v>41.408855000000003</v>
-      </c>
-      <c r="T6">
-        <v>167.203936</v>
-      </c>
-      <c r="U6">
-        <v>325.93787900000001</v>
-      </c>
-      <c r="V6">
-        <v>187.59466</v>
-      </c>
-      <c r="W6">
-        <v>325.62417599999998</v>
-      </c>
-      <c r="X6">
-        <v>516.66957400000001</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>903.46592099999998</v>
-      </c>
-      <c r="Z6">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AA6">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AB6">
-        <v>0.94111</v>
-      </c>
-      <c r="AC6">
-        <v>22.586648</v>
-      </c>
-      <c r="AD6">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AE6">
-        <v>5.3329589999999998</v>
-      </c>
-      <c r="AF6">
-        <v>19.135909999999999</v>
-      </c>
-      <c r="AG6">
-        <v>20.704426999999999</v>
-      </c>
-      <c r="AH6">
-        <v>31.997751000000001</v>
-      </c>
-      <c r="AI6">
-        <v>56.466619999999999</v>
-      </c>
-      <c r="AJ6">
-        <v>37.958117000000001</v>
-      </c>
-      <c r="AK6" s="8">
-        <v>36.389600000000002</v>
-      </c>
+      <c r="M6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="AK6" s="8"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="C7">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="D7">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="E7">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="F7">
-        <v>2.823331</v>
-      </c>
-      <c r="G7">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="H7">
-        <v>108.227688</v>
-      </c>
-      <c r="I7">
-        <v>83.75882</v>
-      </c>
-      <c r="J7">
-        <v>113.87435000000001</v>
-      </c>
-      <c r="K7">
-        <v>456.75221599999998</v>
-      </c>
-      <c r="L7">
-        <v>103.208433</v>
-      </c>
-      <c r="M7" s="8">
-        <v>115.129164</v>
-      </c>
-      <c r="N7">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="O7">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="P7">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="Q7">
-        <v>10.979621</v>
-      </c>
-      <c r="R7">
-        <v>13.802951999999999</v>
-      </c>
-      <c r="S7">
-        <v>27.292200000000001</v>
-      </c>
-      <c r="T7">
-        <v>161.55727400000001</v>
-      </c>
-      <c r="U7">
-        <v>294.25383099999999</v>
-      </c>
-      <c r="V7">
-        <v>164.380605</v>
-      </c>
-      <c r="W7">
-        <v>312.76233500000001</v>
-      </c>
-      <c r="X7">
-        <v>503.18032599999998</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>656.89501299999995</v>
-      </c>
-      <c r="Z7">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AA7">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AB7">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AC7">
-        <v>5.3329589999999998</v>
-      </c>
-      <c r="AD7">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AE7">
-        <v>2.823331</v>
-      </c>
-      <c r="AF7">
-        <v>19.135909999999999</v>
-      </c>
-      <c r="AG7">
-        <v>20.077020000000001</v>
-      </c>
-      <c r="AH7">
-        <v>24.468869000000002</v>
-      </c>
-      <c r="AI7">
-        <v>45.173296000000001</v>
-      </c>
-      <c r="AJ7">
-        <v>37.958117000000001</v>
-      </c>
-      <c r="AK7" s="8">
-        <v>35.762193000000003</v>
-      </c>
+      <c r="M7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="AK7" s="8"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="C8">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="D8">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="E8">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="F8">
-        <v>2.823331</v>
-      </c>
-      <c r="G8">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="H8">
-        <v>80.308081999999999</v>
-      </c>
-      <c r="I8">
-        <v>51.447364999999998</v>
-      </c>
-      <c r="J8">
-        <v>68.387350999999995</v>
-      </c>
-      <c r="K8">
-        <v>382.71820300000002</v>
-      </c>
-      <c r="L8">
-        <v>97.561770999999993</v>
-      </c>
-      <c r="M8" s="8">
-        <v>105.090654</v>
-      </c>
-      <c r="N8">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="O8">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="P8">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="Q8">
-        <v>10.665917</v>
-      </c>
-      <c r="R8">
-        <v>13.175545</v>
-      </c>
-      <c r="S8">
-        <v>12.548138</v>
-      </c>
-      <c r="T8">
-        <v>158.42024000000001</v>
-      </c>
-      <c r="U8">
-        <v>278.56865900000003</v>
-      </c>
-      <c r="V8">
-        <v>161.243571</v>
-      </c>
-      <c r="W8">
-        <v>250.64905200000001</v>
-      </c>
-      <c r="X8">
-        <v>495.65144299999997</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>555.56880100000001</v>
-      </c>
-      <c r="Z8">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AA8">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AB8">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AC8">
-        <v>2.823331</v>
-      </c>
-      <c r="AD8">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AE8">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AF8">
-        <v>19.135909999999999</v>
-      </c>
-      <c r="AG8">
-        <v>19.449614</v>
-      </c>
-      <c r="AH8">
-        <v>20.390723999999999</v>
-      </c>
-      <c r="AI8">
-        <v>41.095151000000001</v>
-      </c>
-      <c r="AJ8">
-        <v>37.644413</v>
-      </c>
-      <c r="AK8" s="8">
-        <v>35.762193000000003</v>
-      </c>
+      <c r="M8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="AK8" s="8"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="C9">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="D9">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="E9">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="F9">
-        <v>2.823331</v>
-      </c>
-      <c r="G9">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="H9">
-        <v>69.328461000000004</v>
-      </c>
-      <c r="I9">
-        <v>46.741813</v>
-      </c>
-      <c r="J9">
-        <v>65.564019999999999</v>
-      </c>
-      <c r="K9">
-        <v>318.09529300000003</v>
-      </c>
-      <c r="L9">
-        <v>91.601405999999997</v>
-      </c>
-      <c r="M9" s="8">
-        <v>102.89473</v>
-      </c>
-      <c r="N9">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="O9">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="P9">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="Q9">
-        <v>10.352214</v>
-      </c>
-      <c r="R9">
-        <v>12.234434</v>
-      </c>
-      <c r="S9">
-        <v>12.234434</v>
-      </c>
-      <c r="T9">
-        <v>152.14617100000001</v>
-      </c>
-      <c r="U9">
-        <v>245.943501</v>
-      </c>
-      <c r="V9">
-        <v>159.04764700000001</v>
-      </c>
-      <c r="W9">
-        <v>240.61054200000001</v>
-      </c>
-      <c r="X9">
-        <v>484.67182200000002</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>471.18257399999999</v>
-      </c>
-      <c r="Z9">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AA9">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AB9">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AC9">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AD9">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AE9">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AF9">
-        <v>18.822206999999999</v>
-      </c>
-      <c r="AG9">
-        <v>19.135909999999999</v>
-      </c>
-      <c r="AH9">
-        <v>20.077020000000001</v>
-      </c>
-      <c r="AI9">
-        <v>40.467744000000003</v>
-      </c>
-      <c r="AJ9">
-        <v>36.703302999999998</v>
-      </c>
-      <c r="AK9" s="8">
-        <v>35.762193000000003</v>
-      </c>
+      <c r="M9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="AK9" s="8"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="C10">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="D10">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="E10">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="F10">
-        <v>2.823331</v>
-      </c>
-      <c r="G10">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="H10">
-        <v>59.289951000000002</v>
-      </c>
-      <c r="I10">
-        <v>45.487000000000002</v>
-      </c>
-      <c r="J10">
-        <v>46.741813</v>
-      </c>
-      <c r="K10">
-        <v>246.257204</v>
-      </c>
-      <c r="L10">
-        <v>81.249191999999994</v>
-      </c>
-      <c r="M10" s="8">
-        <v>84.386227000000005</v>
-      </c>
-      <c r="N10">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="O10">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="P10">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="Q10">
-        <v>10.352214</v>
-      </c>
-      <c r="R10">
-        <v>11.920731</v>
-      </c>
-      <c r="S10">
-        <v>11.920731</v>
-      </c>
-      <c r="T10">
-        <v>147.12691599999999</v>
-      </c>
-      <c r="U10">
-        <v>185.39873600000001</v>
-      </c>
-      <c r="V10">
-        <v>146.81321199999999</v>
-      </c>
-      <c r="W10">
-        <v>238.41461799999999</v>
-      </c>
-      <c r="X10">
-        <v>304.60604499999999</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>383.659313</v>
-      </c>
-      <c r="Z10">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AA10">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AB10">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AC10">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AD10">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AE10">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AF10">
-        <v>18.822206999999999</v>
-      </c>
-      <c r="AG10">
-        <v>18.508503000000001</v>
-      </c>
-      <c r="AH10">
-        <v>19.135909999999999</v>
-      </c>
-      <c r="AI10">
-        <v>39.526634000000001</v>
-      </c>
-      <c r="AJ10">
-        <v>36.075896</v>
-      </c>
-      <c r="AK10" s="8">
-        <v>35.762193000000003</v>
-      </c>
+      <c r="M10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="AK10" s="8"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="C11">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="D11">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="E11">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="F11">
-        <v>2.823331</v>
-      </c>
-      <c r="G11">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="H11">
-        <v>53.956992999999997</v>
-      </c>
-      <c r="I11">
-        <v>44.859592999999997</v>
-      </c>
-      <c r="J11">
-        <v>45.173296000000001</v>
-      </c>
-      <c r="K11">
-        <v>137.715812</v>
-      </c>
-      <c r="L11">
-        <v>77.484751000000003</v>
-      </c>
-      <c r="M11" s="8">
-        <v>79.994377999999998</v>
-      </c>
-      <c r="N11">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="O11">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="P11">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="Q11">
-        <v>10.352214</v>
-      </c>
-      <c r="R11">
-        <v>11.607027</v>
-      </c>
-      <c r="S11">
-        <v>11.920731</v>
-      </c>
-      <c r="T11">
-        <v>143.67617799999999</v>
-      </c>
-      <c r="U11">
-        <v>172.22319100000001</v>
-      </c>
-      <c r="V11">
-        <v>139.28433000000001</v>
-      </c>
-      <c r="W11">
-        <v>194.49613600000001</v>
-      </c>
-      <c r="X11">
-        <v>233.70906600000001</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>323.42825199999999</v>
-      </c>
-      <c r="Z11">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AA11">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AB11">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AC11">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AD11">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AE11">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AF11">
-        <v>18.822206999999999</v>
-      </c>
-      <c r="AG11">
-        <v>18.508503000000001</v>
-      </c>
-      <c r="AH11">
-        <v>19.135909999999999</v>
-      </c>
-      <c r="AI11">
-        <v>38.899227000000003</v>
-      </c>
-      <c r="AJ11">
-        <v>36.075896</v>
-      </c>
-      <c r="AK11" s="8">
-        <v>35.448489000000002</v>
-      </c>
+      <c r="M11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="AK11" s="8"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="C12">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="D12">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="E12">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="F12">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="G12">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="H12">
-        <v>53.956992999999997</v>
-      </c>
-      <c r="I12">
-        <v>44.545889000000003</v>
-      </c>
-      <c r="J12">
-        <v>39.212930999999998</v>
-      </c>
-      <c r="K12">
-        <v>120.46212300000001</v>
-      </c>
-      <c r="L12">
-        <v>71.524384999999995</v>
-      </c>
-      <c r="M12" s="8">
-        <v>78.425860999999998</v>
-      </c>
-      <c r="N12">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="O12">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="P12">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="Q12">
-        <v>10.352214</v>
-      </c>
-      <c r="R12">
-        <v>11.293324</v>
-      </c>
-      <c r="S12">
-        <v>11.607027</v>
-      </c>
-      <c r="T12">
-        <v>142.10766100000001</v>
-      </c>
-      <c r="U12">
-        <v>152.14617100000001</v>
-      </c>
-      <c r="V12">
-        <v>133.63766799999999</v>
-      </c>
-      <c r="W12">
-        <v>192.30021199999999</v>
-      </c>
-      <c r="X12">
-        <v>217.71019100000001</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>307.42937599999999</v>
-      </c>
-      <c r="Z12">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AA12">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AB12">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AC12">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AD12">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AE12">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AF12">
-        <v>18.822206999999999</v>
-      </c>
-      <c r="AG12">
-        <v>18.194800000000001</v>
-      </c>
-      <c r="AH12">
-        <v>18.822206999999999</v>
-      </c>
-      <c r="AI12">
-        <v>38.585523999999999</v>
-      </c>
-      <c r="AJ12">
-        <v>36.075896</v>
-      </c>
-      <c r="AK12" s="8">
-        <v>35.448489000000002</v>
-      </c>
+      <c r="M12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="AK12" s="8"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="D13">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="E13">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="F13">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="G13">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="H13">
-        <v>53.329585999999999</v>
-      </c>
-      <c r="I13">
-        <v>44.545889000000003</v>
-      </c>
-      <c r="J13">
-        <v>38.899227000000003</v>
-      </c>
-      <c r="K13">
-        <v>118.89360600000001</v>
-      </c>
-      <c r="L13">
-        <v>71.210682000000006</v>
-      </c>
-      <c r="M13" s="8">
-        <v>77.484751000000003</v>
-      </c>
-      <c r="N13">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="O13">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="P13">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="Q13">
-        <v>10.03851</v>
-      </c>
-      <c r="R13">
-        <v>11.293324</v>
-      </c>
-      <c r="S13">
-        <v>11.607027</v>
-      </c>
-      <c r="T13">
-        <v>134.265074</v>
-      </c>
-      <c r="U13">
-        <v>147.12691599999999</v>
-      </c>
-      <c r="V13">
-        <v>129.24581900000001</v>
-      </c>
-      <c r="W13">
-        <v>188.22206700000001</v>
-      </c>
-      <c r="X13">
-        <v>166.57652899999999</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>293.62642399999999</v>
-      </c>
-      <c r="Z13">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AA13">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AB13">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="AC13">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AD13">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AE13">
-        <v>2.5096280000000002</v>
-      </c>
-      <c r="AF13">
-        <v>18.508503000000001</v>
-      </c>
-      <c r="AG13">
-        <v>18.194800000000001</v>
-      </c>
-      <c r="AH13">
-        <v>18.822206999999999</v>
-      </c>
-      <c r="AI13">
-        <v>38.271819999999998</v>
-      </c>
-      <c r="AJ13">
-        <v>36.075896</v>
-      </c>
-      <c r="AK13" s="8">
-        <v>35.448489000000002</v>
-      </c>
+      <c r="M13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="AK13" s="8"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -10741,1270 +13307,461 @@
         <v>32.625157999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="D94">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="E94">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="F94">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="G94">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="H94">
-        <v>18.194800000000001</v>
-      </c>
-      <c r="I94">
-        <v>16.939986000000001</v>
-      </c>
-      <c r="J94">
-        <v>17.253689000000001</v>
-      </c>
-      <c r="K94">
-        <v>36.703302999999998</v>
-      </c>
-      <c r="L94">
-        <v>35.134785999999998</v>
-      </c>
-      <c r="M94" s="8">
-        <v>35.448489000000002</v>
-      </c>
-      <c r="N94">
-        <v>0.94111</v>
-      </c>
-      <c r="O94">
-        <v>0.94111</v>
-      </c>
-      <c r="P94">
-        <v>0.94111</v>
-      </c>
-      <c r="Q94">
-        <v>7.5288830000000004</v>
-      </c>
-      <c r="R94">
-        <v>7.8425859999999998</v>
-      </c>
-      <c r="S94">
-        <v>8.1562900000000003</v>
-      </c>
-      <c r="T94">
-        <v>68.387350999999995</v>
-      </c>
-      <c r="U94">
-        <v>71.210682000000006</v>
-      </c>
-      <c r="V94">
-        <v>88.150667999999996</v>
-      </c>
-      <c r="W94">
-        <v>106.659171</v>
-      </c>
-      <c r="X94">
-        <v>106.659171</v>
-      </c>
-      <c r="Y94" s="8">
-        <v>112.61953699999999</v>
-      </c>
-      <c r="Z94">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AA94">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AB94">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AC94">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="AD94">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="AE94">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="AF94">
-        <v>17.253689000000001</v>
-      </c>
-      <c r="AG94">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="AH94">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="AI94">
-        <v>34.507379</v>
-      </c>
-      <c r="AJ94">
-        <v>32.625157999999999</v>
-      </c>
-      <c r="AK94" s="8">
-        <v>32.625157999999999</v>
-      </c>
+      <c r="M94" s="8"/>
+      <c r="Y94" s="8"/>
+      <c r="AK94" s="8"/>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="F95">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="G95">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="H95">
-        <v>18.194800000000001</v>
-      </c>
-      <c r="I95">
-        <v>16.939986000000001</v>
-      </c>
-      <c r="J95">
-        <v>17.253689000000001</v>
-      </c>
-      <c r="K95">
-        <v>36.703302999999998</v>
-      </c>
-      <c r="L95">
-        <v>35.134785999999998</v>
-      </c>
-      <c r="M95" s="8">
-        <v>35.448489000000002</v>
-      </c>
-      <c r="N95">
-        <v>0.94111</v>
-      </c>
-      <c r="O95">
-        <v>0.94111</v>
-      </c>
-      <c r="P95">
-        <v>0.94111</v>
-      </c>
-      <c r="Q95">
-        <v>7.215179</v>
-      </c>
-      <c r="R95">
-        <v>7.8425859999999998</v>
-      </c>
-      <c r="S95">
-        <v>8.1562900000000003</v>
-      </c>
-      <c r="T95">
-        <v>68.387350999999995</v>
-      </c>
-      <c r="U95">
-        <v>70.583275</v>
-      </c>
-      <c r="V95">
-        <v>87.836965000000006</v>
-      </c>
-      <c r="W95">
-        <v>106.659171</v>
-      </c>
-      <c r="X95">
-        <v>106.659171</v>
-      </c>
-      <c r="Y95" s="8">
-        <v>112.30583300000001</v>
-      </c>
-      <c r="Z95">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AA95">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AB95">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AC95">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="AD95">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="AE95">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="AF95">
-        <v>17.253689000000001</v>
-      </c>
-      <c r="AG95">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="AH95">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="AI95">
-        <v>34.507379</v>
-      </c>
-      <c r="AJ95">
-        <v>32.625157999999999</v>
-      </c>
-      <c r="AK95" s="8">
-        <v>32.625157999999999</v>
-      </c>
+      <c r="M95" s="8"/>
+      <c r="Y95" s="8"/>
+      <c r="AK95" s="8"/>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="F96">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="G96">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="H96">
-        <v>18.194800000000001</v>
-      </c>
-      <c r="I96">
-        <v>16.939986000000001</v>
-      </c>
-      <c r="J96">
-        <v>17.253689000000001</v>
-      </c>
-      <c r="K96">
-        <v>36.703302999999998</v>
-      </c>
-      <c r="L96">
-        <v>35.134785999999998</v>
-      </c>
-      <c r="M96" s="8">
-        <v>35.448489000000002</v>
-      </c>
-      <c r="N96">
-        <v>0.94111</v>
-      </c>
-      <c r="O96">
-        <v>0.94111</v>
-      </c>
-      <c r="P96">
-        <v>0.94111</v>
-      </c>
-      <c r="Q96">
-        <v>7.215179</v>
-      </c>
-      <c r="R96">
-        <v>7.8425859999999998</v>
-      </c>
-      <c r="S96">
-        <v>8.1562900000000003</v>
-      </c>
-      <c r="T96">
-        <v>66.818833999999995</v>
-      </c>
-      <c r="U96">
-        <v>70.583275</v>
-      </c>
-      <c r="V96">
-        <v>87.209558000000001</v>
-      </c>
-      <c r="W96">
-        <v>105.71806100000001</v>
-      </c>
-      <c r="X96">
-        <v>106.659171</v>
-      </c>
-      <c r="Y96" s="8">
-        <v>111.99213</v>
-      </c>
-      <c r="Z96">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AA96">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AB96">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AC96">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="AD96">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="AE96">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="AF96">
-        <v>17.253689000000001</v>
-      </c>
-      <c r="AG96">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="AH96">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="AI96">
-        <v>34.507379</v>
-      </c>
-      <c r="AJ96">
-        <v>32.311455000000002</v>
-      </c>
-      <c r="AK96" s="8">
-        <v>32.625157999999999</v>
-      </c>
+      <c r="M96" s="8"/>
+      <c r="Y96" s="8"/>
+      <c r="AK96" s="8"/>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="F97">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="G97">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="H97">
-        <v>18.194800000000001</v>
-      </c>
-      <c r="I97">
-        <v>16.939986000000001</v>
-      </c>
-      <c r="J97">
-        <v>17.253689000000001</v>
-      </c>
-      <c r="K97">
-        <v>36.389600000000002</v>
-      </c>
-      <c r="L97">
-        <v>34.821081999999997</v>
-      </c>
-      <c r="M97" s="8">
-        <v>35.448489000000002</v>
-      </c>
-      <c r="N97">
-        <v>0.94111</v>
-      </c>
-      <c r="O97">
-        <v>0.94111</v>
-      </c>
-      <c r="P97">
-        <v>0.94111</v>
-      </c>
-      <c r="Q97">
-        <v>7.215179</v>
-      </c>
-      <c r="R97">
-        <v>7.8425859999999998</v>
-      </c>
-      <c r="S97">
-        <v>7.8425859999999998</v>
-      </c>
-      <c r="T97">
-        <v>66.818833999999995</v>
-      </c>
-      <c r="U97">
-        <v>70.269571999999997</v>
-      </c>
-      <c r="V97">
-        <v>87.209558000000001</v>
-      </c>
-      <c r="W97">
-        <v>104.463247</v>
-      </c>
-      <c r="X97">
-        <v>106.031764</v>
-      </c>
-      <c r="Y97" s="8">
-        <v>111.051019</v>
-      </c>
-      <c r="Z97">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AA97">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AB97">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AC97">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="AD97">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="AE97">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="AF97">
-        <v>17.253689000000001</v>
-      </c>
-      <c r="AG97">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="AH97">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="AI97">
-        <v>34.507379</v>
-      </c>
-      <c r="AJ97">
-        <v>32.311455000000002</v>
-      </c>
-      <c r="AK97" s="8">
-        <v>32.625157999999999</v>
-      </c>
+      <c r="M97" s="8"/>
+      <c r="Y97" s="8"/>
+      <c r="AK97" s="8"/>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="F98">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="G98">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="H98">
-        <v>18.194800000000001</v>
-      </c>
-      <c r="I98">
-        <v>16.939986000000001</v>
-      </c>
-      <c r="J98">
-        <v>17.253689000000001</v>
-      </c>
-      <c r="K98">
-        <v>36.389600000000002</v>
-      </c>
-      <c r="L98">
-        <v>34.821081999999997</v>
-      </c>
-      <c r="M98" s="8">
-        <v>35.448489000000002</v>
-      </c>
-      <c r="N98">
-        <v>0.94111</v>
-      </c>
-      <c r="O98">
-        <v>0.94111</v>
-      </c>
-      <c r="P98">
-        <v>0.94111</v>
-      </c>
-      <c r="Q98">
-        <v>7.215179</v>
-      </c>
-      <c r="R98">
-        <v>7.215179</v>
-      </c>
-      <c r="S98">
-        <v>7.8425859999999998</v>
-      </c>
-      <c r="T98">
-        <v>66.505129999999994</v>
-      </c>
-      <c r="U98">
-        <v>69.955867999999995</v>
-      </c>
-      <c r="V98">
-        <v>86.268446999999995</v>
-      </c>
-      <c r="W98">
-        <v>104.14954400000001</v>
-      </c>
-      <c r="X98">
-        <v>105.71806100000001</v>
-      </c>
-      <c r="Y98" s="8">
-        <v>111.051019</v>
-      </c>
-      <c r="Z98">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AA98">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AB98">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AC98">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="AD98">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="AE98">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="AF98">
-        <v>17.253689000000001</v>
-      </c>
-      <c r="AG98">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="AH98">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="AI98">
-        <v>34.507379</v>
-      </c>
-      <c r="AJ98">
-        <v>32.311455000000002</v>
-      </c>
-      <c r="AK98" s="8">
-        <v>32.625157999999999</v>
-      </c>
+      <c r="M98" s="8"/>
+      <c r="Y98" s="8"/>
+      <c r="AK98" s="8"/>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="F99">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="G99">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="H99">
-        <v>18.194800000000001</v>
-      </c>
-      <c r="I99">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="J99">
-        <v>17.253689000000001</v>
-      </c>
-      <c r="K99">
-        <v>36.389600000000002</v>
-      </c>
-      <c r="L99">
-        <v>34.507379</v>
-      </c>
-      <c r="M99" s="8">
-        <v>35.134785999999998</v>
-      </c>
-      <c r="N99">
-        <v>0.94111</v>
-      </c>
-      <c r="O99">
-        <v>0.94111</v>
-      </c>
-      <c r="P99">
-        <v>0.94111</v>
-      </c>
-      <c r="Q99">
-        <v>7.215179</v>
-      </c>
-      <c r="R99">
-        <v>7.215179</v>
-      </c>
-      <c r="S99">
-        <v>7.8425859999999998</v>
-      </c>
-      <c r="T99">
-        <v>65.877723000000003</v>
-      </c>
-      <c r="U99">
-        <v>69.642165000000006</v>
-      </c>
-      <c r="V99">
-        <v>85.954744000000005</v>
-      </c>
-      <c r="W99">
-        <v>103.522137</v>
-      </c>
-      <c r="X99">
-        <v>105.71806100000001</v>
-      </c>
-      <c r="Y99" s="8">
-        <v>110.73731600000001</v>
-      </c>
-      <c r="Z99">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AA99">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AB99">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AC99">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="AD99">
-        <v>2.1959240000000002</v>
-      </c>
-      <c r="AE99">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="AF99">
-        <v>17.253689000000001</v>
-      </c>
-      <c r="AG99">
-        <v>16.312578999999999</v>
-      </c>
-      <c r="AH99">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="AI99">
-        <v>34.507379</v>
-      </c>
-      <c r="AJ99">
-        <v>32.311455000000002</v>
-      </c>
-      <c r="AK99" s="8">
-        <v>32.625157999999999</v>
-      </c>
+      <c r="M99" s="8"/>
+      <c r="Y99" s="8"/>
+      <c r="AK99" s="8"/>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="F100">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="G100">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="H100">
-        <v>18.194800000000001</v>
-      </c>
-      <c r="I100">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="J100">
-        <v>17.253689000000001</v>
-      </c>
-      <c r="K100">
-        <v>36.389600000000002</v>
-      </c>
-      <c r="L100">
-        <v>34.507379</v>
-      </c>
-      <c r="M100" s="8">
-        <v>35.134785999999998</v>
-      </c>
-      <c r="N100">
-        <v>0.94111</v>
-      </c>
-      <c r="O100">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="P100">
-        <v>0.94111</v>
-      </c>
-      <c r="Q100">
-        <v>7.215179</v>
-      </c>
-      <c r="R100">
-        <v>7.215179</v>
-      </c>
-      <c r="S100">
-        <v>7.8425859999999998</v>
-      </c>
-      <c r="T100">
-        <v>64.936612999999994</v>
-      </c>
-      <c r="U100">
-        <v>68.387350999999995</v>
-      </c>
-      <c r="V100">
-        <v>85.327337</v>
-      </c>
-      <c r="W100">
-        <v>103.208433</v>
-      </c>
-      <c r="X100">
-        <v>105.090654</v>
-      </c>
-      <c r="Y100" s="8">
-        <v>110.423613</v>
-      </c>
-      <c r="Z100">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AA100">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AB100">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AC100">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="AD100">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="AE100">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="AF100">
-        <v>16.939986000000001</v>
-      </c>
-      <c r="AG100">
-        <v>16.312578999999999</v>
-      </c>
-      <c r="AH100">
-        <v>16.312578999999999</v>
-      </c>
-      <c r="AI100">
-        <v>34.193674999999999</v>
-      </c>
-      <c r="AJ100">
-        <v>32.311455000000002</v>
-      </c>
-      <c r="AK100" s="8">
-        <v>32.311455000000002</v>
-      </c>
+      <c r="M100" s="8"/>
+      <c r="Y100" s="8"/>
+      <c r="AK100" s="8"/>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="F101">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="G101">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="H101">
-        <v>18.194800000000001</v>
-      </c>
-      <c r="I101">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="J101">
-        <v>17.253689000000001</v>
-      </c>
-      <c r="K101">
-        <v>36.389600000000002</v>
-      </c>
-      <c r="L101">
-        <v>34.507379</v>
-      </c>
-      <c r="M101" s="8">
-        <v>35.134785999999998</v>
-      </c>
-      <c r="N101">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="O101">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="P101">
-        <v>0.94111</v>
-      </c>
-      <c r="Q101">
-        <v>7.215179</v>
-      </c>
-      <c r="R101">
-        <v>7.215179</v>
-      </c>
-      <c r="S101">
-        <v>7.5288830000000004</v>
-      </c>
-      <c r="T101">
-        <v>64.622910000000005</v>
-      </c>
-      <c r="U101">
-        <v>68.387350999999995</v>
-      </c>
-      <c r="V101">
-        <v>80.935489000000004</v>
-      </c>
-      <c r="W101">
-        <v>103.208433</v>
-      </c>
-      <c r="X101">
-        <v>104.463247</v>
-      </c>
-      <c r="Y101" s="8">
-        <v>109.796206</v>
-      </c>
-      <c r="Z101">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AA101">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AB101">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AC101">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="AD101">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="AE101">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="AF101">
-        <v>16.939986000000001</v>
-      </c>
-      <c r="AG101">
-        <v>16.312578999999999</v>
-      </c>
-      <c r="AH101">
-        <v>16.312578999999999</v>
-      </c>
-      <c r="AI101">
-        <v>34.193674999999999</v>
-      </c>
-      <c r="AJ101">
-        <v>32.311455000000002</v>
-      </c>
-      <c r="AK101" s="8">
-        <v>32.311455000000002</v>
-      </c>
+      <c r="M101" s="8"/>
+      <c r="Y101" s="8"/>
+      <c r="AK101" s="8"/>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="F102">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="G102">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="H102">
-        <v>18.194800000000001</v>
-      </c>
-      <c r="I102">
-        <v>16.626283000000001</v>
-      </c>
-      <c r="J102">
-        <v>16.939986000000001</v>
-      </c>
-      <c r="K102">
-        <v>36.389600000000002</v>
-      </c>
-      <c r="L102">
-        <v>34.507379</v>
-      </c>
-      <c r="M102" s="8">
-        <v>35.134785999999998</v>
-      </c>
-      <c r="N102">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="O102">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="P102">
-        <v>0.94111</v>
-      </c>
-      <c r="Q102">
-        <v>6.9014759999999997</v>
-      </c>
-      <c r="R102">
-        <v>6.9014759999999997</v>
-      </c>
-      <c r="S102">
-        <v>7.5288830000000004</v>
-      </c>
-      <c r="T102">
-        <v>64.309206000000003</v>
-      </c>
-      <c r="U102">
-        <v>68.073648000000006</v>
-      </c>
-      <c r="V102">
-        <v>74.347716000000005</v>
-      </c>
-      <c r="W102">
-        <v>101.01250899999999</v>
-      </c>
-      <c r="X102">
-        <v>103.83584</v>
-      </c>
-      <c r="Y102" s="8">
-        <v>105.71806100000001</v>
-      </c>
-      <c r="Z102">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AA102">
-        <v>0</v>
-      </c>
-      <c r="AB102">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AC102">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="AD102">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="AE102">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="AF102">
-        <v>16.939986000000001</v>
-      </c>
-      <c r="AG102">
-        <v>16.312578999999999</v>
-      </c>
-      <c r="AH102">
-        <v>16.312578999999999</v>
-      </c>
-      <c r="AI102">
-        <v>34.193674999999999</v>
-      </c>
-      <c r="AJ102">
-        <v>32.311455000000002</v>
-      </c>
-      <c r="AK102" s="8">
-        <v>32.311455000000002</v>
-      </c>
+      <c r="M102" s="8"/>
+      <c r="Y102" s="8"/>
+      <c r="AK102" s="8"/>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="F103">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="G103">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="H103">
-        <v>17.881095999999999</v>
-      </c>
-      <c r="I103">
-        <v>16.312578999999999</v>
-      </c>
-      <c r="J103">
-        <v>16.939986000000001</v>
-      </c>
-      <c r="K103">
-        <v>36.075896</v>
-      </c>
-      <c r="L103">
-        <v>34.193674999999999</v>
-      </c>
-      <c r="M103" s="8">
-        <v>34.821081999999997</v>
-      </c>
-      <c r="N103">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="O103">
-        <v>0.62740700000000005</v>
-      </c>
-      <c r="P103">
-        <v>0.94111</v>
-      </c>
-      <c r="Q103">
-        <v>6.9014759999999997</v>
-      </c>
-      <c r="R103">
-        <v>6.9014759999999997</v>
-      </c>
-      <c r="S103">
-        <v>7.215179</v>
-      </c>
-      <c r="T103">
-        <v>62.740689000000003</v>
-      </c>
-      <c r="U103">
-        <v>65.250316999999995</v>
-      </c>
-      <c r="V103">
-        <v>70.583275</v>
-      </c>
-      <c r="W103">
-        <v>98.189177999999998</v>
-      </c>
-      <c r="X103">
-        <v>102.267323</v>
-      </c>
-      <c r="Y103" s="8">
-        <v>104.463247</v>
-      </c>
-      <c r="Z103">
-        <v>0</v>
-      </c>
-      <c r="AA103">
-        <v>0</v>
-      </c>
-      <c r="AB103">
-        <v>0.31370300000000001</v>
-      </c>
-      <c r="AC103">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="AD103">
-        <v>1.8822209999999999</v>
-      </c>
-      <c r="AE103">
-        <v>1.5685169999999999</v>
-      </c>
-      <c r="AF103">
-        <v>16.939986000000001</v>
-      </c>
-      <c r="AG103">
-        <v>16.312578999999999</v>
-      </c>
-      <c r="AH103">
-        <v>16.312578999999999</v>
-      </c>
-      <c r="AI103">
-        <v>33.879972000000002</v>
-      </c>
-      <c r="AJ103">
-        <v>31.997751000000001</v>
-      </c>
-      <c r="AK103" s="8">
-        <v>31.997751000000001</v>
-      </c>
+      <c r="M103" s="8"/>
+      <c r="Y103" s="8"/>
+      <c r="AK103" s="8"/>
     </row>
     <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B104" s="11">
         <f>AVERAGE(B4:B103)</f>
-        <v>0.30429200000000017</v>
+        <v>0.30586042500000021</v>
       </c>
       <c r="C104" s="11">
         <f t="shared" ref="C104:AK104" si="0">AVERAGE(C4:C103)</f>
-        <v>1.5716539000000038</v>
+        <v>0.31762430000000019</v>
       </c>
       <c r="D104" s="11">
         <f t="shared" si="0"/>
-        <v>0.31370309000000018</v>
+        <v>0.31370300000000018</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="0"/>
-        <v>2.2461166899999965</v>
+        <v>2.1763175999999986</v>
       </c>
       <c r="F104" s="11">
         <f t="shared" si="0"/>
-        <v>4.0279522399999959</v>
+        <v>2.1802388999999986</v>
       </c>
       <c r="G104" s="11">
         <f t="shared" si="0"/>
-        <v>2.0641687799999957</v>
+        <v>2.0547576499999978</v>
       </c>
       <c r="H104" s="11">
         <f t="shared" si="0"/>
-        <v>31.147615060000067</v>
+        <v>24.237512412499989</v>
       </c>
       <c r="I104" s="11">
         <f t="shared" si="0"/>
-        <v>42.77346468999999</v>
+        <v>28.805818775000006</v>
       </c>
       <c r="J104" s="11">
         <f t="shared" si="0"/>
-        <v>33.490979670000023</v>
+        <v>26.24521438750002</v>
       </c>
       <c r="K104" s="11">
         <f t="shared" si="0"/>
-        <v>103.60056261000013</v>
+        <v>43.722417525000012</v>
       </c>
       <c r="L104" s="11">
         <f t="shared" si="0"/>
-        <v>61.45764185999996</v>
+        <v>59.70168683750002</v>
       </c>
       <c r="M104" s="10">
         <f t="shared" si="0"/>
-        <v>61.72428983999999</v>
+        <v>58.501771237499995</v>
       </c>
       <c r="N104" s="11">
         <f t="shared" si="0"/>
-        <v>2.5284497799999968</v>
+        <v>1.5489107999999989</v>
       </c>
       <c r="O104" s="11">
         <f t="shared" si="0"/>
-        <v>1.2422656699999988</v>
+        <v>1.2430499624999993</v>
       </c>
       <c r="P104" s="11">
         <f t="shared" si="0"/>
-        <v>1.44617288</v>
+        <v>1.3959803374999982</v>
       </c>
       <c r="Q104" s="11">
         <f t="shared" si="0"/>
-        <v>9.1570035900000075</v>
+        <v>8.6935067499999956</v>
       </c>
       <c r="R104" s="11">
         <f t="shared" si="0"/>
-        <v>10.402406210000002</v>
+        <v>9.2777793625000093</v>
       </c>
       <c r="S104" s="11">
         <f t="shared" si="0"/>
-        <v>11.509779399999992</v>
+        <v>9.7052003249999999</v>
       </c>
       <c r="T104" s="11">
         <f t="shared" si="0"/>
-        <v>102.71278199</v>
+        <v>93.875755962499966</v>
       </c>
       <c r="U104" s="11">
         <f t="shared" si="0"/>
-        <v>114.68997943000004</v>
+        <v>96.499100900000002</v>
       </c>
       <c r="V104" s="11">
         <f t="shared" si="0"/>
-        <v>103.14882972000001</v>
+        <v>97.938215487500003</v>
       </c>
       <c r="W104" s="11">
         <f t="shared" si="0"/>
-        <v>147.16142300000004</v>
+        <v>137.59817348750008</v>
       </c>
       <c r="X104" s="11">
         <f t="shared" si="0"/>
-        <v>152.97434787</v>
+        <v>124.17166610000001</v>
       </c>
       <c r="Y104" s="10">
         <f t="shared" si="0"/>
-        <v>192.41314496999971</v>
+        <v>144.05262193749996</v>
       </c>
       <c r="Z104" s="11">
         <f t="shared" si="0"/>
-        <v>0.49565132999999895</v>
+        <v>0.50584669999999943</v>
       </c>
       <c r="AA104" s="11">
         <f t="shared" si="0"/>
-        <v>0.42663645999999916</v>
+        <v>0.42349939999999997</v>
       </c>
       <c r="AB104" s="11">
         <f t="shared" si="0"/>
-        <v>0.49878832999999878</v>
+        <v>0.49408279999999943</v>
       </c>
       <c r="AC104" s="11">
         <f t="shared" si="0"/>
-        <v>4.5957554999999983</v>
+        <v>2.2429795999999991</v>
       </c>
       <c r="AD104" s="11">
         <f t="shared" si="0"/>
-        <v>2.4343388199999962</v>
+        <v>2.2939564999999988</v>
       </c>
       <c r="AE104" s="11">
         <f t="shared" si="0"/>
-        <v>2.744905219999993</v>
+        <v>2.0586789374999976</v>
       </c>
       <c r="AF104" s="11">
         <f t="shared" si="0"/>
-        <v>17.846588849999986</v>
+        <v>17.786985199999986</v>
       </c>
       <c r="AG104" s="11">
         <f t="shared" si="0"/>
-        <v>17.435637440000022</v>
+        <v>17.147814512500013</v>
       </c>
       <c r="AH104" s="11">
         <f t="shared" si="0"/>
-        <v>38.080461100000029</v>
+        <v>17.80267038749999</v>
       </c>
       <c r="AI104" s="11">
         <f t="shared" si="0"/>
-        <v>36.954265720000024</v>
+        <v>35.593577037500026</v>
       </c>
       <c r="AJ104" s="11">
         <f t="shared" si="0"/>
-        <v>34.861863809999939</v>
+        <v>33.797624874999961</v>
       </c>
       <c r="AK104" s="10">
         <f t="shared" si="0"/>
-        <v>42.246442869999974</v>
+        <v>34.009374662499951</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="M118" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="Y118" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z118" s="12"/>
+      <c r="AA118" s="12"/>
+      <c r="AB118" s="12"/>
+      <c r="AC118" s="12"/>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>100</v>
+      </c>
+      <c r="C119">
+        <v>1000</v>
+      </c>
+      <c r="D119">
+        <v>10000</v>
+      </c>
+      <c r="E119">
+        <v>20000</v>
+      </c>
+      <c r="N119">
+        <v>100</v>
+      </c>
+      <c r="O119">
+        <v>1000</v>
+      </c>
+      <c r="P119">
+        <v>10000</v>
+      </c>
+      <c r="Q119">
+        <v>20000</v>
+      </c>
+      <c r="Z119">
+        <v>100</v>
+      </c>
+      <c r="AA119">
+        <v>1000</v>
+      </c>
+      <c r="AB119">
+        <v>10000</v>
+      </c>
+      <c r="AC119">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>100</v>
+      </c>
+      <c r="B120">
+        <f>B104</f>
+        <v>0.30586042500000021</v>
+      </c>
+      <c r="C120">
+        <f>E104</f>
+        <v>2.1763175999999986</v>
+      </c>
+      <c r="D120">
+        <f>H104</f>
+        <v>24.237512412499989</v>
+      </c>
+      <c r="E120">
+        <f>K104</f>
+        <v>43.722417525000012</v>
+      </c>
+      <c r="M120">
+        <v>100</v>
+      </c>
+      <c r="N120">
+        <f>N104</f>
+        <v>1.5489107999999989</v>
+      </c>
+      <c r="O120">
+        <f>Q104</f>
+        <v>8.6935067499999956</v>
+      </c>
+      <c r="P120">
+        <f>T104</f>
+        <v>93.875755962499966</v>
+      </c>
+      <c r="Q120">
+        <f>W104</f>
+        <v>137.59817348750008</v>
+      </c>
+      <c r="Y120">
+        <v>100</v>
+      </c>
+      <c r="Z120">
+        <f>Z104</f>
+        <v>0.50584669999999943</v>
+      </c>
+      <c r="AA120">
+        <f>AC104</f>
+        <v>2.2429795999999991</v>
+      </c>
+      <c r="AB120">
+        <f>AF104</f>
+        <v>17.786985199999986</v>
+      </c>
+      <c r="AC120">
+        <f>AI104</f>
+        <v>35.593577037500026</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>16383</v>
+      </c>
+      <c r="B121">
+        <f>C104</f>
+        <v>0.31762430000000019</v>
+      </c>
+      <c r="C121">
+        <f>F104</f>
+        <v>2.1802388999999986</v>
+      </c>
+      <c r="D121">
+        <f>I104</f>
+        <v>28.805818775000006</v>
+      </c>
+      <c r="E121">
+        <f>L104</f>
+        <v>59.70168683750002</v>
+      </c>
+      <c r="M121">
+        <v>16383</v>
+      </c>
+      <c r="N121">
+        <f>O104</f>
+        <v>1.2430499624999993</v>
+      </c>
+      <c r="O121">
+        <f>R104</f>
+        <v>9.2777793625000093</v>
+      </c>
+      <c r="P121">
+        <f>U104</f>
+        <v>96.499100900000002</v>
+      </c>
+      <c r="Q121">
+        <f>X104</f>
+        <v>124.17166610000001</v>
+      </c>
+      <c r="Y121">
+        <v>16383</v>
+      </c>
+      <c r="Z121">
+        <f>AA104</f>
+        <v>0.42349939999999997</v>
+      </c>
+      <c r="AA121">
+        <f>AD104</f>
+        <v>2.2939564999999988</v>
+      </c>
+      <c r="AB121">
+        <f>AG104</f>
+        <v>17.147814512500013</v>
+      </c>
+      <c r="AC121">
+        <f>AJ104</f>
+        <v>33.797624874999961</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>32767</v>
+      </c>
+      <c r="B122">
+        <f>D104</f>
+        <v>0.31370300000000018</v>
+      </c>
+      <c r="C122">
+        <f>G104</f>
+        <v>2.0547576499999978</v>
+      </c>
+      <c r="D122">
+        <f>J104</f>
+        <v>26.24521438750002</v>
+      </c>
+      <c r="E122">
+        <f>M104</f>
+        <v>58.501771237499995</v>
+      </c>
+      <c r="M122">
+        <v>32767</v>
+      </c>
+      <c r="N122">
+        <f>P104</f>
+        <v>1.3959803374999982</v>
+      </c>
+      <c r="O122">
+        <f>S104</f>
+        <v>9.7052003249999999</v>
+      </c>
+      <c r="P122">
+        <f>V104</f>
+        <v>97.938215487500003</v>
+      </c>
+      <c r="Q122">
+        <f>Y104</f>
+        <v>144.05262193749996</v>
+      </c>
+      <c r="Y122">
+        <v>32767</v>
+      </c>
+      <c r="Z122">
+        <f>AB104</f>
+        <v>0.49408279999999943</v>
+      </c>
+      <c r="AA122">
+        <f>AE104</f>
+        <v>2.0586789374999976</v>
+      </c>
+      <c r="AB122">
+        <f>AH104</f>
+        <v>17.80267038749999</v>
+      </c>
+      <c r="AC122">
+        <f>AK104</f>
+        <v>34.009374662499951</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="AK103:AK139">
     <sortCondition descending="1" ref="AK103"/>
   </sortState>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="M118:Q118"/>
+    <mergeCell ref="Y118:AC118"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="N1:Y1"/>
     <mergeCell ref="Z1:AK1"/>
@@ -12023,5 +13780,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>